--- a/data/trans_orig/P04A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P04A-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>5514</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1908</v>
+        <v>2348</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11808</v>
+        <v>11876</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01116073517338463</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00386266032264792</v>
+        <v>0.004752039433777105</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02390073508979321</v>
+        <v>0.02403766179330474</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -765,19 +765,19 @@
         <v>2755</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7498</v>
+        <v>8233</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005892584225904369</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001824180646173842</v>
+        <v>0.001832661560151507</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01603924762045952</v>
+        <v>0.01761108181997941</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -786,19 +786,19 @@
         <v>8269</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3702</v>
+        <v>4513</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15326</v>
+        <v>15723</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008599458564240605</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003850317892895552</v>
+        <v>0.004693860127100494</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01593862475995667</v>
+        <v>0.01635199486711688</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>4691</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1794</v>
+        <v>1873</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10310</v>
+        <v>11198</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.009495701669214611</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003630391539654257</v>
+        <v>0.003790756922754774</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02086830777562011</v>
+        <v>0.02266483254629565</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -836,19 +836,19 @@
         <v>5415</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1838</v>
+        <v>2161</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10889</v>
+        <v>11045</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01158234362436607</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.003930630073552233</v>
+        <v>0.004623107221620721</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0232916920839933</v>
+        <v>0.02362564545617433</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -857,19 +857,19 @@
         <v>10106</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5353</v>
+        <v>5482</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>17402</v>
+        <v>17514</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01051018802024528</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.005567367109516585</v>
+        <v>0.005701346407397174</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0180973594507344</v>
+        <v>0.01821414701833364</v>
       </c>
     </row>
     <row r="6">
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5850</v>
+        <v>5503</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.003653585553141268</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01184009829533832</v>
+        <v>0.0111384360254248</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -907,19 +907,19 @@
         <v>2916</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7971</v>
+        <v>7927</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.006237863953907892</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.001969741842942073</v>
+        <v>0.001983942757467606</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01705170765990296</v>
+        <v>0.01695759122991308</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -928,19 +928,19 @@
         <v>4721</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1830</v>
+        <v>1809</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>11184</v>
+        <v>10458</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.004910013450782574</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001902997173045409</v>
+        <v>0.001881518469071541</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01163094852809302</v>
+        <v>0.01087564490608274</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>94461</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>76138</v>
+        <v>77395</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>114715</v>
+        <v>115694</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1911919710445417</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1541063908331879</v>
+        <v>0.156650716039143</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2321872501002797</v>
+        <v>0.2341688476666889</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>90</v>
@@ -978,19 +978,19 @@
         <v>96470</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>79397</v>
+        <v>80600</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>115356</v>
+        <v>118235</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2063583208067009</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.169837474693494</v>
+        <v>0.1724102275907924</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2467574422047378</v>
+        <v>0.2529150218056578</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>174</v>
@@ -999,19 +999,19 @@
         <v>190931</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>165432</v>
+        <v>165551</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>216591</v>
+        <v>217866</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1985655670707708</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1720465672580103</v>
+        <v>0.1721701229739538</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.225251009619816</v>
+        <v>0.2265770149507198</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>387592</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>368041</v>
+        <v>366058</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>406569</v>
+        <v>405719</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7844980065597178</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7449263726116586</v>
+        <v>0.7409122031052</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8229070430879272</v>
+        <v>0.8211874663410852</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>387</v>
@@ -1049,19 +1049,19 @@
         <v>359933</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>339703</v>
+        <v>336681</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>376788</v>
+        <v>375379</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7699288873891207</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7266539121133816</v>
+        <v>0.7201893840311216</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8059818302515234</v>
+        <v>0.8029690140115681</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>789</v>
@@ -1070,19 +1070,19 @@
         <v>747526</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>721358</v>
+        <v>719068</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>774639</v>
+        <v>772681</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7774147728939608</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7502011721306197</v>
+        <v>0.7478197299761991</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8056122642114431</v>
+        <v>0.8035764260651215</v>
       </c>
     </row>
     <row r="9">
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5651</v>
+        <v>5434</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001474551363361011</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.007683280929447388</v>
+        <v>0.007388596490972331</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1195,19 +1195,19 @@
         <v>4679</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1069</v>
+        <v>1607</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12513</v>
+        <v>12576</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00748103524788673</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001708713937138282</v>
+        <v>0.002569092928599181</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02000535205213718</v>
+        <v>0.02010641735987627</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -1216,19 +1216,19 @@
         <v>5764</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1959</v>
+        <v>2042</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13305</v>
+        <v>14058</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00423507087017208</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001439360389143821</v>
+        <v>0.001500338827080448</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009775798023781177</v>
+        <v>0.01032920022201118</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>9792</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5034</v>
+        <v>4277</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18742</v>
+        <v>18016</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01331355534422447</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.006844157501938415</v>
+        <v>0.005814647983313086</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02548235664800835</v>
+        <v>0.02449470797890415</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10475</v>
+        <v>9715</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.002788747911268969</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01674648719935968</v>
+        <v>0.01553242589393326</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -1287,19 +1287,19 @@
         <v>11536</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5690</v>
+        <v>6081</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>20265</v>
+        <v>22109</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.008476459834994123</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.00418096239312788</v>
+        <v>0.004467971840271066</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01489016624189697</v>
+        <v>0.016244732673635</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>2733</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7468</v>
+        <v>8122</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.003715320723199593</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.001157614156226748</v>
+        <v>0.001161315826566185</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01015415736548239</v>
+        <v>0.01104315278712182</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -1337,19 +1337,19 @@
         <v>4909</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1023</v>
+        <v>1579</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12399</v>
+        <v>12799</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.007847729010534753</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.001636140480210422</v>
+        <v>0.002523979307458249</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0198232628301434</v>
+        <v>0.02046298223947289</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -1358,19 +1358,19 @@
         <v>7641</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3413</v>
+        <v>3015</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16484</v>
+        <v>15641</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.005614533957865117</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.002508015658488179</v>
+        <v>0.002215657666918992</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01211159054715148</v>
+        <v>0.01149279877936869</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>154475</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>132235</v>
+        <v>131774</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>179475</v>
+        <v>178853</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2100297052903072</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1797916964798733</v>
+        <v>0.179165567757248</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.244021726706045</v>
+        <v>0.2431750115125015</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>90</v>
@@ -1408,19 +1408,19 @@
         <v>105217</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>86809</v>
+        <v>87422</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>124897</v>
+        <v>124046</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1682144301180502</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.138784591909669</v>
+        <v>0.1397644646474092</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.199677134383855</v>
+        <v>0.1983167226609884</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>225</v>
@@ -1429,19 +1429,19 @@
         <v>259691</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>226098</v>
+        <v>226427</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>288676</v>
+        <v>295094</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1908118259094816</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1661287887050035</v>
+        <v>0.1663703526378026</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2121083029030858</v>
+        <v>0.2168241561569419</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>567405</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>541798</v>
+        <v>541723</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>590425</v>
+        <v>590828</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7714668672789077</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7366506699247214</v>
+        <v>0.7365481084004151</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8027658778151172</v>
+        <v>0.8033132484646687</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>492</v>
@@ -1479,19 +1479,19 @@
         <v>508944</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>487454</v>
+        <v>488194</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>528321</v>
+        <v>528379</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8136680577122594</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.779309755056286</v>
+        <v>0.7804934895545654</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.844646445752908</v>
+        <v>0.8447391365424414</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1047</v>
@@ -1500,19 +1500,19 @@
         <v>1076349</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1046058</v>
+        <v>1041721</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1109996</v>
+        <v>1109858</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.790862109427487</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7686050974130283</v>
+        <v>0.7654183442599926</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8155848564799603</v>
+        <v>0.8154830212535967</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>3329</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8884</v>
+        <v>8860</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005212922435471606</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001719016181830714</v>
+        <v>0.001715008284069358</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01391005003045086</v>
+        <v>0.01387201312527854</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1625,19 +1625,19 @@
         <v>4212</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1143</v>
+        <v>1153</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10519</v>
+        <v>11672</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.00610618423773074</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001656464657948746</v>
+        <v>0.001671769571579651</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01525105589112398</v>
+        <v>0.01692240285030427</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1646,19 +1646,19 @@
         <v>7541</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3221</v>
+        <v>3256</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14959</v>
+        <v>14232</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005676726037895341</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00242484463266141</v>
+        <v>0.00245111540391168</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01126073712019234</v>
+        <v>0.01071324442271816</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>5705</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2064</v>
+        <v>1940</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13083</v>
+        <v>12873</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.008932580336098317</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.003231121510006323</v>
+        <v>0.003038139640912583</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02048519676163503</v>
+        <v>0.02015549835101915</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7151</v>
+        <v>7184</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.00297783759465061</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01036747306861125</v>
+        <v>0.01041493818917003</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -1717,19 +1717,19 @@
         <v>7759</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3770</v>
+        <v>3313</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>15628</v>
+        <v>15216</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.005840730748435291</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.002837896663187025</v>
+        <v>0.002494221453440635</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01176412254295269</v>
+        <v>0.01145408064792772</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>5335</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1648</v>
+        <v>1691</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14029</v>
+        <v>13689</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.008353705419471903</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.002580536795252244</v>
+        <v>0.002647468170029797</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0219667493626775</v>
+        <v>0.02143412069093253</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6536</v>
+        <v>7101</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.002934833884303578</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.009475405548221875</v>
+        <v>0.01029507332914132</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>6</v>
@@ -1788,19 +1788,19 @@
         <v>7360</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2665</v>
+        <v>2969</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>16694</v>
+        <v>16407</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.005540093404801424</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.002006240948666601</v>
+        <v>0.002235211340124174</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0125671466396693</v>
+        <v>0.01235056093287415</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>73557</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>57684</v>
+        <v>56662</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>93424</v>
+        <v>93046</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1151718773572845</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09031850453042201</v>
+        <v>0.08871847113088828</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1462793283349082</v>
+        <v>0.1456869645488296</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>48</v>
@@ -1838,19 +1838,19 @@
         <v>60214</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>43723</v>
+        <v>43958</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>77878</v>
+        <v>76699</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0872993417043167</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06338972609122004</v>
+        <v>0.06373026281916921</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1129082870066448</v>
+        <v>0.1111987202846342</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>110</v>
@@ -1859,19 +1859,19 @@
         <v>133771</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>112424</v>
+        <v>110572</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>160336</v>
+        <v>161089</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1006997680475211</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08463012329092776</v>
+        <v>0.08323639638788077</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1206973140055351</v>
+        <v>0.1212645378595067</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>550742</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>529866</v>
+        <v>531532</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>567865</v>
+        <v>569005</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8623289144516737</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8296415782044303</v>
+        <v>0.8322502454498405</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8891403162542466</v>
+        <v>0.8909244622055449</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>602</v>
@@ -1909,19 +1909,19 @@
         <v>621240</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>603165</v>
+        <v>603970</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>638817</v>
+        <v>637559</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9006818025789983</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8744759484585386</v>
+        <v>0.8756432254259895</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9261646699374506</v>
+        <v>0.9243420685091978</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1141</v>
@@ -1930,19 +1930,19 @@
         <v>1171982</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1142797</v>
+        <v>1144866</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1195285</v>
+        <v>1197025</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8822426817613469</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8602732746747591</v>
+        <v>0.8618305258433492</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8997852120157044</v>
+        <v>0.9010949306269844</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>4386</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1137</v>
+        <v>1081</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11209</v>
+        <v>10782</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.008448699751544136</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002191068337679852</v>
+        <v>0.00208150730811674</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02159214647475624</v>
+        <v>0.02076887349544199</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2055,19 +2055,19 @@
         <v>4271</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10676</v>
+        <v>11601</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.008282553455933666</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002214654194712388</v>
+        <v>0.002217345848810622</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02070520791807412</v>
+        <v>0.02249782893962816</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>8</v>
@@ -2076,19 +2076,19 @@
         <v>8657</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4219</v>
+        <v>4174</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>16625</v>
+        <v>16751</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.008365907990338267</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004077186666381665</v>
+        <v>0.004033484069618352</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01606643895815116</v>
+        <v>0.01618813330586566</v>
       </c>
     </row>
     <row r="23">
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5418</v>
+        <v>5314</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.002058715883332684</v>
@@ -2117,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01043582237625451</v>
+        <v>0.01023588290949743</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5309</v>
+        <v>5054</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.001032844598165925</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.005130090218230618</v>
+        <v>0.004884376562583603</v>
       </c>
     </row>
     <row r="24">
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6553</v>
+        <v>7156</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.003888211169976203</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01262189559339033</v>
+        <v>0.01378374524496804</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9131</v>
+        <v>8695</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.004960735797024985</v>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01770815516457596</v>
+        <v>0.01686172875660774</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -2210,19 +2210,19 @@
         <v>4577</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1061</v>
+        <v>1051</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>10777</v>
+        <v>12010</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.00442265704783206</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.001024912037576394</v>
+        <v>0.00101545143439839</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01041481594564575</v>
+        <v>0.01160606446696851</v>
       </c>
     </row>
     <row r="25">
@@ -2239,19 +2239,19 @@
         <v>39674</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>27719</v>
+        <v>27690</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>55946</v>
+        <v>56340</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07642092067699222</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05339281191666463</v>
+        <v>0.05333806327098108</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1077656245726434</v>
+        <v>0.1085233041655679</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>37</v>
@@ -2260,19 +2260,19 @@
         <v>42660</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>30973</v>
+        <v>30946</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>57189</v>
+        <v>58235</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08273229568994028</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06006639104729247</v>
+        <v>0.06001399261750308</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1109074774187459</v>
+        <v>0.1129364039169795</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>66</v>
@@ -2281,19 +2281,19 @@
         <v>82334</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>64234</v>
+        <v>63558</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>102946</v>
+        <v>100899</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07956591919190197</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06207447572581207</v>
+        <v>0.06142094078310328</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09948532670502079</v>
+        <v>0.097506790861405</v>
       </c>
     </row>
     <row r="26">
@@ -2310,19 +2310,19 @@
         <v>472000</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>455749</v>
+        <v>454199</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>485829</v>
+        <v>484745</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9091834525181548</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8778810603401858</v>
+        <v>0.8748943678583672</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9358212543238307</v>
+        <v>0.9337333613565182</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>459</v>
@@ -2331,19 +2331,19 @@
         <v>466153</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>449650</v>
+        <v>449249</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>478919</v>
+        <v>479222</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9040244150571011</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8720191504249185</v>
+        <v>0.8712424264775194</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9287822199088036</v>
+        <v>0.9293686798543054</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>907</v>
@@ -2352,19 +2352,19 @@
         <v>938153</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>916346</v>
+        <v>917603</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>957766</v>
+        <v>956949</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9066126711717618</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8855389817439865</v>
+        <v>0.8867541890689911</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9255667935989418</v>
+        <v>0.9247767839730755</v>
       </c>
     </row>
     <row r="27">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8675</v>
+        <v>8365</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.006081537033353691</v>
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02243241528122405</v>
+        <v>0.02163146853594085</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7999</v>
+        <v>6917</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.004950721164450974</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01980050872816968</v>
+        <v>0.01712106530714622</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -2545,19 +2545,19 @@
         <v>4352</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1075</v>
+        <v>1498</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>11694</v>
+        <v>11311</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.005503775481928347</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.00135934699847805</v>
+        <v>0.001894870867957876</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01479013165392218</v>
+        <v>0.01430521674224918</v>
       </c>
     </row>
     <row r="30">
@@ -2577,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5401</v>
+        <v>4483</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.002325199768402143</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01396549224575446</v>
+        <v>0.01159155602963543</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>4321</v>
+        <v>5321</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.002637368312082492</v>
@@ -2607,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01069480138600825</v>
+        <v>0.01317178405294124</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2</v>
@@ -2619,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>6775</v>
+        <v>6627</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.002484694330746726</v>
@@ -2628,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.008569016976634798</v>
+        <v>0.008381626382624371</v>
       </c>
     </row>
     <row r="31">
@@ -2645,19 +2645,19 @@
         <v>14628</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>8474</v>
+        <v>8163</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>25403</v>
+        <v>24836</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0378267460041655</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02191238297252809</v>
+        <v>0.02110865772919825</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06568890585553326</v>
+        <v>0.06422289084557302</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>20</v>
@@ -2666,19 +2666,19 @@
         <v>22231</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>14427</v>
+        <v>13367</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>34267</v>
+        <v>32182</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05502790642272869</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03571182216896335</v>
+        <v>0.03308890659299804</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.08482305436848936</v>
+        <v>0.0796611697588234</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>33</v>
@@ -2687,19 +2687,19 @@
         <v>36858</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>26233</v>
+        <v>25106</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>51898</v>
+        <v>50505</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04661524057966942</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03317686738143429</v>
+        <v>0.03175187685790463</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06563609665460224</v>
+        <v>0.06387388557139342</v>
       </c>
     </row>
     <row r="32">
@@ -2716,19 +2716,19 @@
         <v>368831</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>357570</v>
+        <v>358314</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>376247</v>
+        <v>376264</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9537665171940787</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9246457234877593</v>
+        <v>0.9265699187639487</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.972942562059912</v>
+        <v>0.9729875169694902</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>373</v>
@@ -2737,19 +2737,19 @@
         <v>378690</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>365316</v>
+        <v>367798</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>386989</v>
+        <v>388258</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9373840041007379</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9042778343606847</v>
+        <v>0.9104233938723171</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9579265829781743</v>
+        <v>0.9610684762665824</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>749</v>
@@ -2758,19 +2758,19 @@
         <v>747521</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>732038</v>
+        <v>733286</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>758651</v>
+        <v>760157</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9453962896076555</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9258152873433519</v>
+        <v>0.9273928322676915</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9594726448908601</v>
+        <v>0.9613771395459876</v>
       </c>
     </row>
     <row r="33">
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>4577</v>
+        <v>4555</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.002653898088256896</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01334565694342741</v>
+        <v>0.01328310409859476</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1</v>
@@ -2899,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>4579</v>
+        <v>5248</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.001432081101658771</v>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.007205405734498024</v>
+        <v>0.008258554642046093</v>
       </c>
     </row>
     <row r="35">
@@ -2925,19 +2925,19 @@
         <v>2443</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>6421</v>
+        <v>6613</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.008351370209227693</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.002608178400573776</v>
+        <v>0.002618595909669453</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02194571201859267</v>
+        <v>0.02260125728027832</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>0</v>
@@ -2959,19 +2959,19 @@
         <v>2443</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>6602</v>
+        <v>6585</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.003844852230066568</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.001205937905431837</v>
+        <v>0.001207411076983233</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01038811109717736</v>
+        <v>0.01036212319443242</v>
       </c>
     </row>
     <row r="36">
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6125</v>
+        <v>6188</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.005910594355819682</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02093295430430281</v>
+        <v>0.02115055939147654</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>4234</v>
+        <v>5270</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.002720051930119797</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01234780588320448</v>
+        <v>0.01536796022085413</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>3</v>
@@ -3030,19 +3030,19 @@
         <v>2662</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>7097</v>
+        <v>7181</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.004188932347733164</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.001269102781533689</v>
+        <v>0.001271081278806603</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01116729786360128</v>
+        <v>0.0112989580690604</v>
       </c>
     </row>
     <row r="37">
@@ -3059,19 +3059,19 @@
         <v>12874</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>6575</v>
+        <v>6991</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>22178</v>
+        <v>21413</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.04400081567483256</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0224738932919085</v>
+        <v>0.02389333804584318</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.07579941100974838</v>
+        <v>0.07318659189724538</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>12</v>
@@ -3080,19 +3080,19 @@
         <v>11059</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>6322</v>
+        <v>6284</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>18269</v>
+        <v>19438</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03224806006943119</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0184347944129589</v>
+        <v>0.01832566416893294</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05327342927413973</v>
+        <v>0.05668107957899318</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>24</v>
@@ -3101,19 +3101,19 @@
         <v>23933</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>16118</v>
+        <v>15578</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>34122</v>
+        <v>35185</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03765886182612083</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02536129670346739</v>
+        <v>0.02451304147841736</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05369231731404773</v>
+        <v>0.05536391753546566</v>
       </c>
     </row>
     <row r="38">
@@ -3130,19 +3130,19 @@
         <v>275536</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>265637</v>
+        <v>266423</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>282170</v>
+        <v>282469</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.94173721976012</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9079015966563204</v>
+        <v>0.9105899366723135</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9644104266618679</v>
+        <v>0.9654337231261892</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>357</v>
@@ -3151,19 +3151,19 @@
         <v>330032</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>321573</v>
+        <v>321295</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>335587</v>
+        <v>335316</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9623779899121921</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9377122211663925</v>
+        <v>0.9369011700019566</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9785747844458857</v>
+        <v>0.9777865857013952</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>643</v>
@@ -3172,19 +3172,19 @@
         <v>605568</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>594223</v>
+        <v>592429</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>614762</v>
+        <v>614889</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9528752724944206</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9350225615845161</v>
+        <v>0.9322000798190146</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9673410627503731</v>
+        <v>0.9675420057402166</v>
       </c>
     </row>
     <row r="39">
@@ -3279,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>4150</v>
+        <v>5100</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.003913578995873821</v>
@@ -3288,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01977470539969673</v>
+        <v>0.02429913529795614</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4092</v>
+        <v>4107</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.001510495260683418</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.007524582742417146</v>
+        <v>0.007553223220460034</v>
       </c>
     </row>
     <row r="41">
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>6604</v>
+        <v>6563</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.008946067881386577</v>
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03146498652109508</v>
+        <v>0.03126976580210192</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>2</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>6811</v>
+        <v>8354</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.006710848021908965</v>
@@ -3372,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02039690595070032</v>
+        <v>0.02501843359430383</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>4</v>
@@ -3381,19 +3381,19 @@
         <v>4118</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1154</v>
+        <v>1071</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>10621</v>
+        <v>9589</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.00757355936819483</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.002122714935525748</v>
+        <v>0.001970245708736541</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01953105011187928</v>
+        <v>0.01763286510237385</v>
       </c>
     </row>
     <row r="42">
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4442</v>
+        <v>4682</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.004153760837317886</v>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.02116415768923859</v>
+        <v>0.02230630000278889</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>5086</v>
+        <v>4906</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.001603196477034481</v>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.009353680357792337</v>
+        <v>0.009021483233535991</v>
       </c>
     </row>
     <row r="43">
@@ -3473,19 +3473,19 @@
         <v>6061</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>2452</v>
+        <v>2446</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>13501</v>
+        <v>12353</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.02887640343300612</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01168375112490507</v>
+        <v>0.01165559917505236</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.06432635341318974</v>
+        <v>0.0588551621694501</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>9</v>
@@ -3494,19 +3494,19 @@
         <v>10554</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>5266</v>
+        <v>4696</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>19575</v>
+        <v>19111</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.03160725932865123</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01577077121813753</v>
+        <v>0.01406389475700039</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.05862360354033468</v>
+        <v>0.05723530909159914</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>15</v>
@@ -3515,19 +3515,19 @@
         <v>16615</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>9581</v>
+        <v>9548</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>26308</v>
+        <v>27692</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.03055325099195217</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01761912967346709</v>
+        <v>0.01755766118466965</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.04837900054685689</v>
+        <v>0.0509236765216191</v>
       </c>
     </row>
     <row r="44">
@@ -3544,19 +3544,19 @@
         <v>200252</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>192948</v>
+        <v>192928</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>205359</v>
+        <v>205394</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.9541101888524156</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.9193102338813885</v>
+        <v>0.9192174928963619</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.9784437726941196</v>
+        <v>0.9786105208350249</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>279</v>
@@ -3565,19 +3565,19 @@
         <v>321113</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>311546</v>
+        <v>311886</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>327058</v>
+        <v>327152</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.9616818926494398</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.9330298820504039</v>
+        <v>0.9340489038271809</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.9794854439272034</v>
+        <v>0.9797655522074958</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>489</v>
@@ -3586,19 +3586,19 @@
         <v>521365</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>511079</v>
+        <v>509355</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>529846</v>
+        <v>529637</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.9587594979021351</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.9398449452746204</v>
+        <v>0.9366745079841815</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.9743557859762154</v>
+        <v>0.9739707636845265</v>
       </c>
     </row>
     <row r="45">
@@ -3690,19 +3690,19 @@
         <v>15135</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>8860</v>
+        <v>9005</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>24608</v>
+        <v>24733</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.004619340509290058</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.00270405320047719</v>
+        <v>0.002748343256867982</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.007510287032535694</v>
+        <v>0.007548370937561344</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>16</v>
@@ -3711,19 +3711,19 @@
         <v>16827</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>9176</v>
+        <v>10132</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>28116</v>
+        <v>27672</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.004979499332549223</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.002715297085132875</v>
+        <v>0.002998233411121078</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.008320277775867047</v>
+        <v>0.008188781996447283</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>31</v>
@@ -3732,19 +3732,19 @@
         <v>31962</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>22784</v>
+        <v>22220</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>44997</v>
+        <v>45691</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.004802197353311513</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.003423230178256833</v>
+        <v>0.003338446055306611</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.006760564816695119</v>
+        <v>0.006864957904129547</v>
       </c>
     </row>
     <row r="47">
@@ -3761,19 +3761,19 @@
         <v>27930</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>18992</v>
+        <v>17822</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>40313</v>
+        <v>39262</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.008524247577108618</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.005796504031634685</v>
+        <v>0.005439356069996203</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.012303635737908</v>
+        <v>0.01198285570512145</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>13</v>
@@ -3782,19 +3782,19 @@
         <v>13454</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>7547</v>
+        <v>7374</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>23673</v>
+        <v>23061</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.003981341857051107</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.002233512459744685</v>
+        <v>0.002182246489381799</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.007005466452248253</v>
+        <v>0.006824341822401269</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>40</v>
@@ -3803,19 +3803,19 @@
         <v>41384</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>30347</v>
+        <v>30653</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>55276</v>
+        <v>55881</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.006217761246607228</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.004559499373585078</v>
+        <v>0.004605545127465441</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.00830496602029538</v>
+        <v>0.008395953977623905</v>
       </c>
     </row>
     <row r="48">
@@ -3832,19 +3832,19 @@
         <v>15392</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>8153</v>
+        <v>8358</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>24629</v>
+        <v>25211</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.004697571530611167</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.002488269206929398</v>
+        <v>0.002550850334892301</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.007516735210079955</v>
+        <v>0.007694331398129904</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>13</v>
@@ -3853,19 +3853,19 @@
         <v>14405</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>7959</v>
+        <v>7860</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>24913</v>
+        <v>25417</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.00426294931785279</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.002355272982369692</v>
+        <v>0.002326044489686253</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.007372327321500633</v>
+        <v>0.007521547484283776</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>28</v>
@@ -3874,19 +3874,19 @@
         <v>29797</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>20117</v>
+        <v>19960</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>42718</v>
+        <v>42240</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.00447690875343014</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.003022572594222518</v>
+        <v>0.002998891560133062</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.006418220035474349</v>
+        <v>0.006346457535051174</v>
       </c>
     </row>
     <row r="49">
@@ -3903,19 +3903,19 @@
         <v>395728</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>356616</v>
+        <v>360125</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>435327</v>
+        <v>437719</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1207761554720217</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1088389788644158</v>
+        <v>0.1099100877291272</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.132861784570967</v>
+        <v>0.1335917404178344</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>306</v>
@@ -3924,19 +3924,19 @@
         <v>348405</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>315519</v>
+        <v>310517</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>390988</v>
+        <v>387199</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1031029523099967</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.09337111845965353</v>
+        <v>0.09189088021507495</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1157045511477842</v>
+        <v>0.1145832022422354</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>647</v>
@@ -3945,19 +3945,19 @@
         <v>744134</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>693752</v>
+        <v>693077</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>796587</v>
+        <v>797683</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1118032636663629</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1042336481635102</v>
+        <v>0.10413216736405</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1196842062889564</v>
+        <v>0.1198488418124087</v>
       </c>
     </row>
     <row r="50">
@@ -3974,19 +3974,19 @@
         <v>2822357</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>2779624</v>
+        <v>2777172</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>2860309</v>
+        <v>2859109</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.8613826849109685</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.848340597214342</v>
+        <v>0.8475921546070919</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.8729656236920722</v>
+        <v>0.8725991744845083</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>2949</v>
@@ -3995,19 +3995,19 @@
         <v>2986106</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>2943977</v>
+        <v>2941924</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>3024624</v>
+        <v>3025176</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.8836732571825502</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.8712062063721812</v>
+        <v>0.8705986662967968</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.8950719257466931</v>
+        <v>0.8952351209178014</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>5765</v>
@@ -4016,19 +4016,19 @@
         <v>5808464</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>5751108</v>
+        <v>5751544</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>5862433</v>
+        <v>5863789</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.8726998689802882</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.864082266563435</v>
+        <v>0.8641477429144888</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.8808084327611279</v>
+        <v>0.8810121936423789</v>
       </c>
     </row>
     <row r="51">
@@ -4363,19 +4363,19 @@
         <v>8165</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3938</v>
+        <v>4024</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14972</v>
+        <v>15390</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01797797371615234</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008670581370374617</v>
+        <v>0.008860522388412513</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03296782571871048</v>
+        <v>0.03388708392437156</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -4384,19 +4384,19 @@
         <v>6872</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2865</v>
+        <v>2974</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13682</v>
+        <v>13626</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01597274938729602</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006659446011605211</v>
+        <v>0.006911561245803417</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0318010596283391</v>
+        <v>0.03167029709130078</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -4405,19 +4405,19 @@
         <v>15037</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8970</v>
+        <v>8021</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24568</v>
+        <v>23455</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01700247538430547</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01014219438514839</v>
+        <v>0.009069742650528441</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02777966589468391</v>
+        <v>0.02652193897802178</v>
       </c>
     </row>
     <row r="5">
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4981</v>
+        <v>5912</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.002168271559401148</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01096823314923923</v>
+        <v>0.01301789436174582</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -4458,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6367</v>
+        <v>6620</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.004517228839069458</v>
@@ -4467,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01479924970354698</v>
+        <v>0.01538674777947419</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -4476,19 +4476,19 @@
         <v>2928</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9618</v>
+        <v>7785</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.003310988548678298</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001052193595031968</v>
+        <v>0.001047967271968846</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0108753626959257</v>
+        <v>0.008802435835642891</v>
       </c>
     </row>
     <row r="6">
@@ -4552,19 +4552,19 @@
         <v>78830</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>62362</v>
+        <v>62225</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>96655</v>
+        <v>96291</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1735788976002696</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1373174441858864</v>
+        <v>0.1370154789781786</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.212828332795778</v>
+        <v>0.2120263114102331</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>89</v>
@@ -4573,19 +4573,19 @@
         <v>93857</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>77118</v>
+        <v>75421</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>112165</v>
+        <v>111081</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2181564248136981</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1792482907952264</v>
+        <v>0.1753039087662432</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2607090924481366</v>
+        <v>0.258190743272612</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>159</v>
@@ -4594,19 +4594,19 @@
         <v>172688</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>149704</v>
+        <v>148546</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>198881</v>
+        <v>198104</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1952649019085055</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1692768937123872</v>
+        <v>0.1679670193320948</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2248829706494438</v>
+        <v>0.2240047055110601</v>
       </c>
     </row>
     <row r="8">
@@ -4623,19 +4623,19 @@
         <v>366167</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>347322</v>
+        <v>348517</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>383684</v>
+        <v>383978</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.806274857124177</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7647798311715415</v>
+        <v>0.7674118357109742</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8448461948138563</v>
+        <v>0.8454947979596975</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>323</v>
@@ -4644,19 +4644,19 @@
         <v>327557</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>308431</v>
+        <v>309192</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>343805</v>
+        <v>344526</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7613535969599364</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7168985387995527</v>
+        <v>0.7186665758644699</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7991192354126623</v>
+        <v>0.8007948134914576</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>690</v>
@@ -4665,19 +4665,19 @@
         <v>693724</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>666914</v>
+        <v>667666</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>717210</v>
+        <v>717309</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7844216341585107</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7541068475785389</v>
+        <v>0.7549576955220683</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8109781451087226</v>
+        <v>0.8110900965307152</v>
       </c>
     </row>
     <row r="9">
@@ -4769,19 +4769,19 @@
         <v>13225</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7622</v>
+        <v>7441</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21241</v>
+        <v>20934</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01924847317597374</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01109268412570681</v>
+        <v>0.01082950870615227</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0309143698297781</v>
+        <v>0.03046802512793129</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -4790,19 +4790,19 @@
         <v>13021</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7834</v>
+        <v>7120</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22232</v>
+        <v>21793</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02137150517663739</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01285869300129757</v>
+        <v>0.01168581087144878</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03649011579789014</v>
+        <v>0.0357699496924337</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -4811,19 +4811,19 @@
         <v>26246</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18469</v>
+        <v>17401</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38180</v>
+        <v>37597</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02024625844889328</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01424665965715356</v>
+        <v>0.01342326664664358</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02945203637951617</v>
+        <v>0.02900204607507727</v>
       </c>
     </row>
     <row r="11">
@@ -4840,19 +4840,19 @@
         <v>3823</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9531</v>
+        <v>9620</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.005564471840609173</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.001398392094685232</v>
+        <v>0.001408811449819139</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0138717263205444</v>
+        <v>0.01400138548460875</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -4874,19 +4874,19 @@
         <v>3823</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>8759</v>
+        <v>9635</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.002949274305951323</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0007425431029682132</v>
+        <v>0.0007442962393773682</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.00675683040799728</v>
+        <v>0.007432104732235996</v>
       </c>
     </row>
     <row r="12">
@@ -4950,19 +4950,19 @@
         <v>168445</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>146894</v>
+        <v>143010</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>192205</v>
+        <v>191386</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2451578706715877</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2137929529837185</v>
+        <v>0.2081391051487607</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2797384987546542</v>
+        <v>0.2785465302140672</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>127</v>
@@ -4971,19 +4971,19 @@
         <v>138264</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>117585</v>
+        <v>117562</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>161158</v>
+        <v>159568</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2269375507326134</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1929974234176439</v>
+        <v>0.1929593314393098</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2645156358241588</v>
+        <v>0.2619062422044349</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>279</v>
@@ -4992,19 +4992,19 @@
         <v>306708</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>275281</v>
+        <v>275305</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>341138</v>
+        <v>339238</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2365946615926347</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2123518119046959</v>
+        <v>0.2123700711547483</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2631540952946642</v>
+        <v>0.2616879486693196</v>
       </c>
     </row>
     <row r="14">
@@ -5021,19 +5021,19 @@
         <v>501594</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>477804</v>
+        <v>478127</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>524793</v>
+        <v>528797</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7300291843118294</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6954055644594237</v>
+        <v>0.6958758736189435</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7637934070659848</v>
+        <v>0.7696220150132256</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>430</v>
@@ -5042,19 +5042,19 @@
         <v>457974</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>434128</v>
+        <v>436212</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>478586</v>
+        <v>479214</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7516909440907492</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7125519408198066</v>
+        <v>0.7159720215631812</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7855233506612522</v>
+        <v>0.7865531192211302</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>927</v>
@@ -5063,19 +5063,19 @@
         <v>959567</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>924629</v>
+        <v>923331</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>990922</v>
+        <v>990401</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7402098056525207</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7132582526421251</v>
+        <v>0.7122569988807099</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7643969857822861</v>
+        <v>0.7639948470590732</v>
       </c>
     </row>
     <row r="15">
@@ -5167,19 +5167,19 @@
         <v>11689</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5777</v>
+        <v>5852</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21285</v>
+        <v>20891</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01721214778887913</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008506689344616201</v>
+        <v>0.008617449931551923</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03134134368199214</v>
+        <v>0.03076100389797763</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -5188,19 +5188,19 @@
         <v>10178</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4193</v>
+        <v>4437</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18673</v>
+        <v>19877</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01431850574335261</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005898203321693159</v>
+        <v>0.006241641039555546</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0262680005316424</v>
+        <v>0.02796249776309552</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -5209,19 +5209,19 @@
         <v>21868</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13807</v>
+        <v>14162</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>33688</v>
+        <v>34035</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01573232035770201</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009932934695215384</v>
+        <v>0.01018881857677793</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02423583091348422</v>
+        <v>0.02448549513922803</v>
       </c>
     </row>
     <row r="17">
@@ -5241,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6259</v>
+        <v>7021</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.002874648595954715</v>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.009215386128004346</v>
+        <v>0.01033819427654014</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -5262,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11259</v>
+        <v>11274</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.004080331439174764</v>
@@ -5271,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01583841234671482</v>
+        <v>0.01585970358151467</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -5283,16 +5283,16 @@
         <v>1849</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>11720</v>
+        <v>12923</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.003491242672424876</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.001329868188295228</v>
+        <v>0.0013303207450384</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.008431438016393638</v>
+        <v>0.009296836463489359</v>
       </c>
     </row>
     <row r="18">
@@ -5356,19 +5356,19 @@
         <v>85835</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>70097</v>
+        <v>66511</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>107460</v>
+        <v>104608</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1263878716802607</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1032137154484787</v>
+        <v>0.09793405152737276</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.158230206354563</v>
+        <v>0.1540304916805901</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>84</v>
@@ -5377,19 +5377,19 @@
         <v>94272</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>73001</v>
+        <v>74591</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>113632</v>
+        <v>113811</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1326190838414547</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1026948233090262</v>
+        <v>0.1049315890397123</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1598530877727063</v>
+        <v>0.160105306077438</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>158</v>
@@ -5398,19 +5398,19 @@
         <v>180107</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>156498</v>
+        <v>155943</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>207368</v>
+        <v>208071</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1295745542555553</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1125890753496633</v>
+        <v>0.1121898559894241</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1491870573209607</v>
+        <v>0.1496927749720548</v>
       </c>
     </row>
     <row r="20">
@@ -5427,19 +5427,19 @@
         <v>579663</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>557040</v>
+        <v>559967</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>598450</v>
+        <v>599841</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8535253319349054</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8202136076289607</v>
+        <v>0.8245239375474713</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8811878077467521</v>
+        <v>0.8832363627073064</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>573</v>
@@ -5448,19 +5448,19 @@
         <v>603499</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>584385</v>
+        <v>582506</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>624151</v>
+        <v>623730</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.848982078976018</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8220925790540363</v>
+        <v>0.819449574556913</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8780343260591045</v>
+        <v>0.8774429922150944</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1134</v>
@@ -5469,19 +5469,19 @@
         <v>1183161</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1154726</v>
+        <v>1154523</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1208666</v>
+        <v>1211142</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8512018827143178</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8307449811439288</v>
+        <v>0.8305988123386061</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8695504421097923</v>
+        <v>0.8713317863456769</v>
       </c>
     </row>
     <row r="21">
@@ -5573,19 +5573,19 @@
         <v>8893</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3565</v>
+        <v>4239</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18064</v>
+        <v>19437</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01449420834831666</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005810816786560706</v>
+        <v>0.006908556743267597</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02944125857421718</v>
+        <v>0.03167781108683307</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8992</v>
+        <v>7437</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.00381043428253184</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01462013026372947</v>
+        <v>0.01209129650289921</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -5615,19 +5615,19 @@
         <v>11237</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5506</v>
+        <v>5175</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>20642</v>
+        <v>20235</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.00914580979453437</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004481006052993804</v>
+        <v>0.004211982560672704</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01680076931830538</v>
+        <v>0.0164694313018526</v>
       </c>
     </row>
     <row r="23">
@@ -5738,19 +5738,19 @@
         <v>69367</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>54628</v>
+        <v>54067</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>88461</v>
+        <v>88234</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1130533318654134</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08903196438878778</v>
+        <v>0.08811772218748383</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1441731784983012</v>
+        <v>0.1438021811232013</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>53</v>
@@ -5759,19 +5759,19 @@
         <v>66417</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>50603</v>
+        <v>50185</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>85191</v>
+        <v>85502</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1079813375887777</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08227090687209614</v>
+        <v>0.0815911804635136</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.138504944658541</v>
+        <v>0.13901051701496</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>111</v>
@@ -5780,19 +5780,19 @@
         <v>135783</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>115239</v>
+        <v>110161</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>160387</v>
+        <v>159806</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1105142434602377</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09379354436712183</v>
+        <v>0.08966021381432325</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1305389898745657</v>
+        <v>0.1300663046782847</v>
       </c>
     </row>
     <row r="26">
@@ -5809,19 +5809,19 @@
         <v>535316</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>516056</v>
+        <v>515871</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>551471</v>
+        <v>551340</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.87245245978627</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8410631573944798</v>
+        <v>0.8407616360889257</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8987811343159264</v>
+        <v>0.8985683209981624</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>483</v>
@@ -5830,19 +5830,19 @@
         <v>546314</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>528277</v>
+        <v>527508</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>563613</v>
+        <v>562746</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8882082281286905</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8588830196203372</v>
+        <v>0.857633272736981</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9163328898435382</v>
+        <v>0.9149237972046679</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>965</v>
@@ -5851,19 +5851,19 @@
         <v>1081630</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1057080</v>
+        <v>1057346</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1104061</v>
+        <v>1107720</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8803399467452279</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8603591779592293</v>
+        <v>0.8605757827014833</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8985970674665467</v>
+        <v>0.9015750441732655</v>
       </c>
     </row>
     <row r="27">
@@ -5958,7 +5958,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5226</v>
+        <v>6215</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.002413646576580523</v>
@@ -5967,7 +5967,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01216964795830664</v>
+        <v>0.01447168781467354</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -5976,19 +5976,19 @@
         <v>4055</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1039</v>
+        <v>1025</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>10027</v>
+        <v>9336</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.009079441053743965</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.002325588731739247</v>
+        <v>0.002294103152242936</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02245164635114133</v>
+        <v>0.02090445356109084</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5</v>
@@ -5997,19 +5997,19 @@
         <v>5091</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1961</v>
+        <v>1983</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>11207</v>
+        <v>12303</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.00581191025733879</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.002238755472963718</v>
+        <v>0.002263527279991261</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01279237133988183</v>
+        <v>0.01404402649897476</v>
       </c>
     </row>
     <row r="29">
@@ -6029,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5776</v>
+        <v>5298</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.002399381466082289</v>
@@ -6038,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01345065881940336</v>
+        <v>0.01233746761445252</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5641</v>
+        <v>6184</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.002519942182861339</v>
@@ -6059,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01263074980296514</v>
+        <v>0.01384619058013211</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7796</v>
+        <v>7588</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.002460844072911831</v>
@@ -6080,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.008898981600310836</v>
+        <v>0.00866166391810513</v>
       </c>
     </row>
     <row r="30">
@@ -6144,19 +6144,19 @@
         <v>29167</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>19472</v>
+        <v>19905</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>43141</v>
+        <v>42372</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0679214597326368</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04534480836004594</v>
+        <v>0.04635110320652155</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1004607606549431</v>
+        <v>0.09867086540840052</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>19</v>
@@ -6165,19 +6165,19 @@
         <v>22944</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>14488</v>
+        <v>14244</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>35374</v>
+        <v>35462</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05137292560431546</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03243902190069675</v>
+        <v>0.03189436290746259</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07920482135604374</v>
+        <v>0.07940343620137105</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>44</v>
@@ -6186,19 +6186,19 @@
         <v>52111</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>38482</v>
+        <v>38177</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>68892</v>
+        <v>66667</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.05948491361788262</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04392765147254832</v>
+        <v>0.04357934849371621</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07863988416358589</v>
+        <v>0.07610004372766387</v>
       </c>
     </row>
     <row r="32">
@@ -6215,19 +6215,19 @@
         <v>398195</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>383916</v>
+        <v>384548</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>407614</v>
+        <v>407633</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9272655122247004</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8940143829441143</v>
+        <v>0.8954870753078767</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9491992476131201</v>
+        <v>0.9492445690662903</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>381</v>
@@ -6236,19 +6236,19 @@
         <v>418486</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>405998</v>
+        <v>403973</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>428332</v>
+        <v>427679</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9370276911590792</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9090662688091629</v>
+        <v>0.90453176995717</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9590743261173437</v>
+        <v>0.9576125318460809</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>747</v>
@@ -6257,19 +6257,19 @@
         <v>816682</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>798521</v>
+        <v>800961</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>829754</v>
+        <v>831578</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9322423320518668</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9115115878502391</v>
+        <v>0.9142971256066941</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9471642723992315</v>
+        <v>0.9492466036352449</v>
       </c>
     </row>
     <row r="33">
@@ -6364,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>6833</v>
+        <v>4201</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.003282419047474087</v>
@@ -6373,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02205711457229133</v>
+        <v>0.01355968974250917</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2</v>
@@ -6385,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>6747</v>
+        <v>6853</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.005481820263524512</v>
@@ -6394,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01906028236441453</v>
+        <v>0.01935897939853097</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3</v>
@@ -6403,19 +6403,19 @@
         <v>2957</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>8834</v>
+        <v>8766</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.004455362904109259</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.00141354952827229</v>
+        <v>0.001422497327595239</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01330928393721913</v>
+        <v>0.01320686160438329</v>
       </c>
     </row>
     <row r="35">
@@ -6448,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>4616</v>
+        <v>4936</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.002788949134836788</v>
@@ -6457,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01303868232666595</v>
+        <v>0.0139423762031834</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1</v>
@@ -6469,7 +6469,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>4996</v>
+        <v>5629</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.001487350616296007</v>
@@ -6478,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.007526397669958683</v>
+        <v>0.008479880491795381</v>
       </c>
     </row>
     <row r="36">
@@ -6542,19 +6542,19 @@
         <v>8852</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>4840</v>
+        <v>4740</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>16466</v>
+        <v>16869</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02857410729718582</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01562401787338239</v>
+        <v>0.01530011989253023</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05315272124615125</v>
+        <v>0.05445533270100909</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>13</v>
@@ -6563,19 +6563,19 @@
         <v>14443</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>8055</v>
+        <v>7964</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>24449</v>
+        <v>24719</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04079943668853257</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02275429488744108</v>
+        <v>0.02249628962366679</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0690666448127101</v>
+        <v>0.0698296941898808</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>22</v>
@@ -6584,19 +6584,19 @@
         <v>23295</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>14351</v>
+        <v>14461</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>36155</v>
+        <v>33250</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03509389318266967</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0216200124214699</v>
+        <v>0.02178650110381752</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05446857402423121</v>
+        <v>0.05009233767514808</v>
       </c>
     </row>
     <row r="38">
@@ -6613,19 +6613,19 @@
         <v>299917</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>291733</v>
+        <v>291577</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>304759</v>
+        <v>304801</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9681434736553401</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9417236814920896</v>
+        <v>0.941219404474814</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9837724266615049</v>
+        <v>0.9839084946410452</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>328</v>
@@ -6634,19 +6634,19 @@
         <v>336625</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>326808</v>
+        <v>325510</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>344116</v>
+        <v>344081</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9509297939131062</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9231956048115142</v>
+        <v>0.919528934192536</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9720912486024638</v>
+        <v>0.9719918392157706</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>600</v>
@@ -6655,19 +6655,19 @@
         <v>636543</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>623730</v>
+        <v>625276</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>645585</v>
+        <v>645702</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.958963393296925</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.939661191919051</v>
+        <v>0.9419904294257974</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.972585456997866</v>
+        <v>0.9727621884330496</v>
       </c>
     </row>
     <row r="39">
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>11063</v>
+        <v>11597</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.007948924773985046</v>
@@ -6784,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02852266000900333</v>
+        <v>0.02990039890680335</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2</v>
@@ -6796,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>11784</v>
+        <v>11171</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.004834639939114645</v>
@@ -6805,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01847849558282439</v>
+        <v>0.0175177017668952</v>
       </c>
     </row>
     <row r="41">
@@ -6916,19 +6916,19 @@
         <v>9641</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>4413</v>
+        <v>4278</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>16685</v>
+        <v>18193</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.03858874083019486</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01766363945841639</v>
+        <v>0.01712387755288502</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.06677781080003896</v>
+        <v>0.07281378928298604</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>11</v>
@@ -6937,19 +6937,19 @@
         <v>11607</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>5360</v>
+        <v>6322</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>19860</v>
+        <v>20169</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.02992598763795563</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01381993786033075</v>
+        <v>0.01630023384840748</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.05120360274588948</v>
+        <v>0.05199921641524976</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>20</v>
@@ -6958,19 +6958,19 @@
         <v>21249</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>13067</v>
+        <v>12958</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>30927</v>
+        <v>31807</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.03331994111743871</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.02048974262489403</v>
+        <v>0.02031931788843122</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.04849556330628529</v>
+        <v>0.04987607165716892</v>
       </c>
     </row>
     <row r="44">
@@ -6987,19 +6987,19 @@
         <v>240210</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>233166</v>
+        <v>231658</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>245438</v>
+        <v>245573</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.9614112591698052</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.9332221891999611</v>
+        <v>0.9271862107170141</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.9823363605415837</v>
+        <v>0.982876122447115</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>336</v>
@@ -7008,19 +7008,19 @@
         <v>373179</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>363478</v>
+        <v>361921</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>380221</v>
+        <v>379385</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.9621250875880594</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.9371140111664311</v>
+        <v>0.9330989238474986</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.980279113319444</v>
+        <v>0.9781247649456257</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>549</v>
@@ -7029,19 +7029,19 @@
         <v>613389</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>602399</v>
+        <v>603011</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>622586</v>
+        <v>622231</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.9618454189434467</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.944612148934495</v>
+        <v>0.9455719654318442</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.9762670700817033</v>
+        <v>0.9757110632762896</v>
       </c>
     </row>
     <row r="45">
@@ -7133,19 +7133,19 @@
         <v>44026</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>32090</v>
+        <v>33137</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>59615</v>
+        <v>60080</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.0128617880396444</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.009374672055121805</v>
+        <v>0.009680580971180266</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01741603878407028</v>
+        <v>0.01755171850516599</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>38</v>
@@ -7154,19 +7154,19 @@
         <v>41493</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>29386</v>
+        <v>29998</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>56217</v>
+        <v>56324</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01167549000389507</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.008268752204790087</v>
+        <v>0.008441003563024017</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01581833823556664</v>
+        <v>0.01584852631047856</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>80</v>
@@ -7175,19 +7175,19 @@
         <v>85519</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>68124</v>
+        <v>68037</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>107283</v>
+        <v>105452</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01225751274074197</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.00976426286966057</v>
+        <v>0.009751717362184187</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01537694959023369</v>
+        <v>0.01511447849898514</v>
       </c>
     </row>
     <row r="47">
@@ -7204,19 +7204,19 @@
         <v>7791</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>3786</v>
+        <v>3047</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>14516</v>
+        <v>14645</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.002275958772842179</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.001106014416434437</v>
+        <v>0.0008902044743738053</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.004240776418170404</v>
+        <v>0.00427844762393813</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>6</v>
@@ -7225,19 +7225,19 @@
         <v>6957</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>2990</v>
+        <v>2988</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>14965</v>
+        <v>14985</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.001957478398995723</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.0008413706059723663</v>
+        <v>0.000840727528529156</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.004210873925268342</v>
+        <v>0.004216456547318463</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>14</v>
@@ -7246,19 +7246,19 @@
         <v>14747</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>7992</v>
+        <v>8208</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>24367</v>
+        <v>25063</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.002113731560707361</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.001145498330931826</v>
+        <v>0.001176409365430311</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.003492580853559819</v>
+        <v>0.003592326522686945</v>
       </c>
     </row>
     <row r="48">
@@ -7322,19 +7322,19 @@
         <v>450138</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>412045</v>
+        <v>408141</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>497243</v>
+        <v>493200</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1315032406959005</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1203749378174663</v>
+        <v>0.1192342452641286</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1452647166217631</v>
+        <v>0.1440835530283842</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>396</v>
@@ -7343,19 +7343,19 @@
         <v>441804</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>400065</v>
+        <v>402281</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>486153</v>
+        <v>484234</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1243155516420017</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1125709548638738</v>
+        <v>0.1131945933497691</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1367948149263638</v>
+        <v>0.1362546600499384</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>793</v>
@@ -7364,19 +7364,19 @@
         <v>891941</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>836436</v>
+        <v>834789</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>950672</v>
+        <v>950899</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1278419828832978</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1198864743764589</v>
+        <v>0.1196503773589358</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1362598684140179</v>
+        <v>0.1362924143833327</v>
       </c>
     </row>
     <row r="50">
@@ -7393,19 +7393,19 @@
         <v>2921061</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>2872315</v>
+        <v>2877378</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>2963663</v>
+        <v>2966011</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.8533590124916129</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.8391185419390145</v>
+        <v>0.840597549364597</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.8658047980254168</v>
+        <v>0.8664909246514162</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>2854</v>
@@ -7414,19 +7414,19 @@
         <v>3063634</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>3019375</v>
+        <v>3021903</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>3107512</v>
+        <v>3101497</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.8620514799551074</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.8495975414841861</v>
+        <v>0.8503089349705897</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.8743978337141851</v>
+        <v>0.8727054336909696</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>5612</v>
@@ -7435,19 +7435,19 @@
         <v>5984695</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>5923718</v>
+        <v>5917269</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>6037631</v>
+        <v>6044571</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.8577867728152528</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.8490468692587608</v>
+        <v>0.8481226123652834</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.8653740217207972</v>
+        <v>0.8663688304303628</v>
       </c>
     </row>
     <row r="51">
@@ -7785,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6667</v>
+        <v>7028</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004916000527120021</v>
@@ -7794,7 +7794,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01593021282760894</v>
+        <v>0.01679239122291537</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7786</v>
+        <v>6893</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004887746854537757</v>
@@ -7815,7 +7815,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01986453227547629</v>
+        <v>0.01758427201009176</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -7824,19 +7824,19 @@
         <v>3973</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1063</v>
+        <v>1025</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10713</v>
+        <v>10022</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004902336070013476</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001311201921816729</v>
+        <v>0.001264767362625843</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01321825902907874</v>
+        <v>0.0123660856672592</v>
       </c>
     </row>
     <row r="5">
@@ -7866,19 +7866,19 @@
         <v>3073</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9045</v>
+        <v>9938</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.007839417553316663</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.002435216023316236</v>
+        <v>0.002449072931507641</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02307441428266135</v>
+        <v>0.02535346154923667</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -7887,19 +7887,19 @@
         <v>3073</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8264</v>
+        <v>8274</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.003791414535073084</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001185776814209174</v>
+        <v>0.001179651364442088</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01019606233098236</v>
+        <v>0.01020917020420983</v>
       </c>
     </row>
     <row r="6">
@@ -7932,7 +7932,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5346</v>
+        <v>4568</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.002151142837929767</v>
@@ -7941,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01363755447424128</v>
+        <v>0.01165334170233568</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>4215</v>
+        <v>4620</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.001040367370059875</v>
@@ -7962,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.005201046593158808</v>
+        <v>0.005699973815427415</v>
       </c>
     </row>
     <row r="7">
@@ -7979,19 +7979,19 @@
         <v>90848</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>73122</v>
+        <v>74329</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>109225</v>
+        <v>109577</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2170811362894112</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1747254840959139</v>
+        <v>0.177609306833106</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2609917169958658</v>
+        <v>0.2618349831933633</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>101</v>
@@ -8000,19 +8000,19 @@
         <v>101175</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>86249</v>
+        <v>84642</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>119784</v>
+        <v>118790</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2581185805903739</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2200399182670797</v>
+        <v>0.2159390074986111</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3055944828009365</v>
+        <v>0.3030591221587246</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>178</v>
@@ -8021,19 +8021,19 @@
         <v>192023</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>170148</v>
+        <v>169180</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>217797</v>
+        <v>220399</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2369282692870784</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2099370974995932</v>
+        <v>0.2087427712913292</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2687301818804669</v>
+        <v>0.271939886251818</v>
       </c>
     </row>
     <row r="8">
@@ -8050,19 +8050,19 @@
         <v>325593</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>306764</v>
+        <v>306621</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>343006</v>
+        <v>342281</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7780028631834688</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7330112784993209</v>
+        <v>0.7326709407715221</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8196109168132762</v>
+        <v>0.8178786674788235</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>293</v>
@@ -8071,19 +8071,19 @@
         <v>284964</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>265639</v>
+        <v>267620</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>299938</v>
+        <v>301541</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7270031121638419</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6777006943924755</v>
+        <v>0.6827538058454632</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7652038332399057</v>
+        <v>0.7692949374708129</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>606</v>
@@ -8092,19 +8092,19 @@
         <v>610557</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>584076</v>
+        <v>582550</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>633118</v>
+        <v>634586</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7533376127377752</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7206646056582787</v>
+        <v>0.7187819169193338</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7811752314642932</v>
+        <v>0.7829867031917381</v>
       </c>
     </row>
     <row r="9">
@@ -8196,19 +8196,19 @@
         <v>5036</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1944</v>
+        <v>1900</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11185</v>
+        <v>11075</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008542011015473906</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003297682688181525</v>
+        <v>0.003223106395315632</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01897126370940569</v>
+        <v>0.01878467498993228</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -8217,19 +8217,19 @@
         <v>4521</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1827</v>
+        <v>1740</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10618</v>
+        <v>9830</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008037201775929214</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003248452290981966</v>
+        <v>0.003092525776586758</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01887487867617527</v>
+        <v>0.01747387772612785</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -8238,19 +8238,19 @@
         <v>9557</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4676</v>
+        <v>4791</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17225</v>
+        <v>17401</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008295527712114753</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004058810865925131</v>
+        <v>0.004158391894861929</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01495116949824076</v>
+        <v>0.01510386469278046</v>
       </c>
     </row>
     <row r="11">
@@ -8267,19 +8267,19 @@
         <v>3841</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9542</v>
+        <v>9625</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.006514498814103959</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.001637633188651437</v>
+        <v>0.00162957844458659</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01618545202470659</v>
+        <v>0.01632504654451036</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -8288,19 +8288,19 @@
         <v>5797</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1985</v>
+        <v>2022</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12658</v>
+        <v>11671</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01030499438466059</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003528332074909474</v>
+        <v>0.003594188728959502</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02250210045583688</v>
+        <v>0.02074664300867889</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -8309,19 +8309,19 @@
         <v>9638</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4826</v>
+        <v>4884</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>17043</v>
+        <v>17534</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.008365284806931094</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004189007432187517</v>
+        <v>0.004239180737456301</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01479320220575712</v>
+        <v>0.01521937828506611</v>
       </c>
     </row>
     <row r="12">
@@ -8354,7 +8354,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6056</v>
+        <v>5472</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.001743919096992132</v>
@@ -8363,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01076600196216249</v>
+        <v>0.009726803230650366</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1</v>
@@ -8375,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>4918</v>
+        <v>4879</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0008515037090157601</v>
@@ -8384,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.004268987244725432</v>
+        <v>0.004235136801064108</v>
       </c>
     </row>
     <row r="13">
@@ -8401,19 +8401,19 @@
         <v>192076</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>168315</v>
+        <v>170254</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>216040</v>
+        <v>217215</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3257914532972056</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2854891454287659</v>
+        <v>0.2887783807203567</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3664395043227836</v>
+        <v>0.3684318367987573</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>154</v>
@@ -8422,19 +8422,19 @@
         <v>152645</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>131419</v>
+        <v>132379</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>172511</v>
+        <v>174554</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2713499249711254</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2336177458670582</v>
+        <v>0.2353250084338334</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3066653377673713</v>
+        <v>0.3102967336818692</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>330</v>
@@ -8443,19 +8443,19 @@
         <v>344720</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>312720</v>
+        <v>312682</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>375917</v>
+        <v>377570</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2992092779118339</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2714336594624338</v>
+        <v>0.2714004459207316</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3262873412894663</v>
+        <v>0.3277221356264232</v>
       </c>
     </row>
     <row r="14">
@@ -8472,19 +8472,19 @@
         <v>388614</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>364512</v>
+        <v>362875</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>411930</v>
+        <v>410542</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6591520368732166</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6182725890245621</v>
+        <v>0.6154949412583127</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.698701097110437</v>
+        <v>0.6963469177350342</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>412</v>
@@ -8493,19 +8493,19 @@
         <v>398594</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>378098</v>
+        <v>376498</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>419916</v>
+        <v>419494</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7085639597712926</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6721295798074335</v>
+        <v>0.6692839498079052</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7464668695369399</v>
+        <v>0.7457168308378892</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>793</v>
@@ -8514,19 +8514,19 @@
         <v>787208</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>755987</v>
+        <v>752443</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>820013</v>
+        <v>817787</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6832784058601045</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6561795884147762</v>
+        <v>0.6531033913296448</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.711752656056049</v>
+        <v>0.7098205021955666</v>
       </c>
     </row>
     <row r="15">
@@ -8621,7 +8621,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7042</v>
+        <v>6880</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002920121419962311</v>
@@ -8630,7 +8630,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01053923058839583</v>
+        <v>0.01029771798891562</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -8639,19 +8639,19 @@
         <v>4323</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10661</v>
+        <v>11241</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006536406905191458</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001486686116741129</v>
+        <v>0.001483298237357512</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01611917508258318</v>
+        <v>0.01699675280043482</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -8660,19 +8660,19 @@
         <v>6274</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2027</v>
+        <v>2461</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12648</v>
+        <v>14197</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004719098074080957</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001524381172246404</v>
+        <v>0.001850854852251264</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.00951329902636194</v>
+        <v>0.01067812365175339</v>
       </c>
     </row>
     <row r="17">
@@ -8689,19 +8689,19 @@
         <v>4877</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1937</v>
+        <v>1926</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10798</v>
+        <v>10763</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.007299593236425166</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.00289987737916354</v>
+        <v>0.002883190607365998</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01616142470383601</v>
+        <v>0.01610948021091278</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -8710,19 +8710,19 @@
         <v>9747</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5394</v>
+        <v>4652</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17002</v>
+        <v>17624</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01473750411851947</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.008154974971531524</v>
+        <v>0.007034467926349502</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02570638810837576</v>
+        <v>0.02664737554197377</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>15</v>
@@ -8731,19 +8731,19 @@
         <v>14624</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8566</v>
+        <v>8179</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24524</v>
+        <v>23531</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01099969603167083</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.006443007314653303</v>
+        <v>0.00615201894026861</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01844559138978896</v>
+        <v>0.0176986736965918</v>
       </c>
     </row>
     <row r="18">
@@ -8776,7 +8776,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6559</v>
+        <v>5637</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.002815340542433136</v>
@@ -8785,7 +8785,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.009917022849957826</v>
+        <v>0.008522456978708862</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2</v>
@@ -8797,7 +8797,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>5656</v>
+        <v>6506</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.001400534313432395</v>
@@ -8806,7 +8806,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.004254008822790306</v>
+        <v>0.00489338470712233</v>
       </c>
     </row>
     <row r="19">
@@ -8823,19 +8823,19 @@
         <v>111186</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>93007</v>
+        <v>92484</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>132344</v>
+        <v>132438</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1664147482271688</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1392063940846548</v>
+        <v>0.1384228604538534</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1980829320570019</v>
+        <v>0.1982233050383606</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>105</v>
@@ -8844,19 +8844,19 @@
         <v>109440</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>91714</v>
+        <v>93008</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>130372</v>
+        <v>130118</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1654703777191788</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1386691922281248</v>
+        <v>0.140625837678986</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1971191901554171</v>
+        <v>0.1967347265069155</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>203</v>
@@ -8865,19 +8865,19 @@
         <v>220626</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>192016</v>
+        <v>192610</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>246866</v>
+        <v>247921</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1659449566402901</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1444262667017469</v>
+        <v>0.1448725123597542</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1856817020920437</v>
+        <v>0.186474886339499</v>
       </c>
     </row>
     <row r="20">
@@ -8894,19 +8894,19 @@
         <v>550112</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>528376</v>
+        <v>529200</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>569072</v>
+        <v>568685</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8233655371164438</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7908328728699817</v>
+        <v>0.7920662690432032</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8517441573458376</v>
+        <v>0.8511639203475186</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>544</v>
@@ -8915,19 +8915,19 @@
         <v>536014</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>515363</v>
+        <v>514517</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>555683</v>
+        <v>554683</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8104403707146771</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.779216372717456</v>
+        <v>0.7779374046663771</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8401800726208541</v>
+        <v>0.8386677756606631</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1076</v>
@@ -8936,19 +8936,19 @@
         <v>1086126</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1057751</v>
+        <v>1057300</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1116813</v>
+        <v>1114050</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8169357149405257</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7955937384846582</v>
+        <v>0.7952539850606671</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8400168790675624</v>
+        <v>0.8379388690739307</v>
       </c>
     </row>
     <row r="21">
@@ -9043,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7528</v>
+        <v>6941</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.00234462574219623</v>
@@ -9052,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01166951682694588</v>
+        <v>0.0107608670139947</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -9064,7 +9064,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4883</v>
+        <v>4908</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.001507690342079252</v>
@@ -9073,7 +9073,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.007557470324761644</v>
+        <v>0.007596969289781067</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>8503</v>
+        <v>8091</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.00192583223511046</v>
@@ -9094,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.006585294479186006</v>
+        <v>0.006266679159719701</v>
       </c>
     </row>
     <row r="23">
@@ -9111,19 +9111,19 @@
         <v>6562</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2112</v>
+        <v>2188</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>15511</v>
+        <v>14072</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01017273459267276</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.003274437909565124</v>
+        <v>0.003391888825597391</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02404609178207897</v>
+        <v>0.02181513165250765</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -9132,19 +9132,19 @@
         <v>3644</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10926</v>
+        <v>11285</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.005640192828071487</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.001569936033513033</v>
+        <v>0.001576059287706455</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01691193460265903</v>
+        <v>0.01746674194154211</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8</v>
@@ -9153,19 +9153,19 @@
         <v>10206</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4529</v>
+        <v>4459</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>19639</v>
+        <v>19178</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.007904699256439187</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.003507500181645046</v>
+        <v>0.003453715830669547</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01521042139749302</v>
+        <v>0.01485363498158582</v>
       </c>
     </row>
     <row r="24">
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7019</v>
+        <v>6188</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.003081956533647128</v>
@@ -9194,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01088108786580431</v>
+        <v>0.00959256097494403</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -9206,7 +9206,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9334</v>
+        <v>6583</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.002543138158679019</v>
@@ -9215,7 +9215,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01444671627422332</v>
+        <v>0.01018885509980082</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3</v>
@@ -9224,19 +9224,19 @@
         <v>3631</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>0</v>
+        <v>987</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>9957</v>
+        <v>10440</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.002812337591846351</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0</v>
+        <v>0.0007645029798364965</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.007711448812736727</v>
+        <v>0.008085524351131503</v>
       </c>
     </row>
     <row r="25">
@@ -9253,19 +9253,19 @@
         <v>80641</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>63395</v>
+        <v>64407</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>99544</v>
+        <v>99179</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1250118138062801</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09827623425815278</v>
+        <v>0.09984543851309241</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1543159550725559</v>
+        <v>0.1537502594543291</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>58</v>
@@ -9274,19 +9274,19 @@
         <v>67339</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>53799</v>
+        <v>53167</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>89317</v>
+        <v>87430</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.104228911427852</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08327047319458064</v>
+        <v>0.08229221041143681</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1382465153274538</v>
+        <v>0.1353256633544768</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>126</v>
@@ -9295,19 +9295,19 @@
         <v>147980</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>126133</v>
+        <v>123859</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>175656</v>
+        <v>174509</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1146122721292683</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09769141686792307</v>
+        <v>0.0959302656873402</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1360469654414384</v>
+        <v>0.13515922792552</v>
       </c>
     </row>
     <row r="26">
@@ -9324,19 +9324,19 @@
         <v>554363</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>532934</v>
+        <v>532982</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>572911</v>
+        <v>570988</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8593888693252038</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8261684510253283</v>
+        <v>0.8262424968814426</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8881424836585486</v>
+        <v>0.8851614616011126</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>536</v>
@@ -9345,19 +9345,19 @@
         <v>572472</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>551364</v>
+        <v>552585</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>587063</v>
+        <v>588038</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8860800672433182</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8534088804779354</v>
+        <v>0.8552996179961292</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9086650363923012</v>
+        <v>0.9101743428527266</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1041</v>
@@ -9366,19 +9366,19 @@
         <v>1126835</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1099678</v>
+        <v>1098458</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1150638</v>
+        <v>1152288</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8727448587873358</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.851711311414457</v>
+        <v>0.8507666457650622</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8911805246684108</v>
+        <v>0.8924582478924884</v>
       </c>
     </row>
     <row r="27">
@@ -9473,7 +9473,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>8112</v>
+        <v>8247</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.004743120446052215</v>
@@ -9482,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01697364246797772</v>
+        <v>0.01725579597307847</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>9113</v>
+        <v>7352</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.00366936947060152</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01834258770547011</v>
+        <v>0.01479671686140515</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3</v>
@@ -9512,19 +9512,19 @@
         <v>4090</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>12935</v>
+        <v>11614</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.00419581827028281</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.001158610715397481</v>
+        <v>0.001156548603266392</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01327029974331447</v>
+        <v>0.01191480469028107</v>
       </c>
     </row>
     <row r="29">
@@ -9544,7 +9544,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6771</v>
+        <v>6647</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.004267424044950012</v>
@@ -9553,7 +9553,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01416788858532717</v>
+        <v>0.0139074690175781</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5</v>
@@ -9562,19 +9562,19 @@
         <v>5934</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2356</v>
+        <v>2363</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>13160</v>
+        <v>13215</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01194278143271732</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.00474111300407115</v>
+        <v>0.00475528002820465</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02648772148692061</v>
+        <v>0.02659696973294793</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7</v>
@@ -9583,19 +9583,19 @@
         <v>7973</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3485</v>
+        <v>3520</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>16201</v>
+        <v>15575</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.008179634505452378</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.003574928048968553</v>
+        <v>0.003611514449498631</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01662009966684953</v>
+        <v>0.01597795018778977</v>
       </c>
     </row>
     <row r="30">
@@ -9628,7 +9628,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7587</v>
+        <v>7311</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.004629072053899705</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01527106648984131</v>
+        <v>0.01471399532942403</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>7211</v>
+        <v>7147</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.002359486757000848</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.007397886722450297</v>
+        <v>0.007331996599086177</v>
       </c>
     </row>
     <row r="31">
@@ -9675,19 +9675,19 @@
         <v>37065</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>25500</v>
+        <v>25342</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>50627</v>
+        <v>49804</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.07755561254121002</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05335584195359529</v>
+        <v>0.05302655228525566</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1059318521011783</v>
+        <v>0.1042100303296659</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>25</v>
@@ -9696,19 +9696,19 @@
         <v>30438</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>20858</v>
+        <v>19994</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>44688</v>
+        <v>42923</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06126240038150483</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04198139618694187</v>
+        <v>0.04024142914133309</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.08994310589623387</v>
+        <v>0.08639005470256775</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>56</v>
@@ -9717,19 +9717,19 @@
         <v>67503</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>51409</v>
+        <v>52355</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>86370</v>
+        <v>86451</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06925079078164306</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05273971071742369</v>
+        <v>0.05371066244186978</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08860565232647896</v>
+        <v>0.08868840120881154</v>
       </c>
     </row>
     <row r="32">
@@ -9746,19 +9746,19 @@
         <v>436546</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>422152</v>
+        <v>422934</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>447969</v>
+        <v>449169</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9134338429677877</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8833152387082938</v>
+        <v>0.8849507526097752</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9373342367475982</v>
+        <v>0.9398458796570058</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>400</v>
@@ -9767,19 +9767,19 @@
         <v>456354</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>438457</v>
+        <v>440719</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>467479</v>
+        <v>468427</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9184963766612766</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8824745128197033</v>
+        <v>0.8870279168322297</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9408881174900009</v>
+        <v>0.9427962146771866</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>789</v>
@@ -9788,19 +9788,19 @@
         <v>892900</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>871848</v>
+        <v>872835</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>909307</v>
+        <v>909771</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9160142696856209</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8944167673190919</v>
+        <v>0.8954294129963273</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9328459133859907</v>
+        <v>0.9333215630048433</v>
       </c>
     </row>
     <row r="33">
@@ -9955,7 +9955,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>6417</v>
+        <v>7402</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.005596361380287092</v>
@@ -9964,7 +9964,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01710688795593252</v>
+        <v>0.0197350677160732</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>2</v>
@@ -9976,7 +9976,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>6872</v>
+        <v>6363</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.002958960469145354</v>
@@ -9985,7 +9985,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.009686876859440212</v>
+        <v>0.008969412065906318</v>
       </c>
     </row>
     <row r="36">
@@ -10049,19 +10049,19 @@
         <v>11705</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>6698</v>
+        <v>6686</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>20361</v>
+        <v>19664</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03501151387979491</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02003278705512694</v>
+        <v>0.01999814658327979</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.06090126369026602</v>
+        <v>0.0588162141977725</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>11</v>
@@ -10070,19 +10070,19 @@
         <v>11697</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>6247</v>
+        <v>6252</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>20191</v>
+        <v>19909</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03118372884255685</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01665524081704802</v>
+        <v>0.01666918658136501</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0538294384035629</v>
+        <v>0.05307744554253112</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>23</v>
@@ -10091,19 +10091,19 @@
         <v>23402</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>15173</v>
+        <v>15465</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>34353</v>
+        <v>34576</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03298765161645543</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02138791942818391</v>
+        <v>0.02179914077160324</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04842341662369912</v>
+        <v>0.04873821839402909</v>
       </c>
     </row>
     <row r="38">
@@ -10120,19 +10120,19 @@
         <v>322625</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>313969</v>
+        <v>314666</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>327632</v>
+        <v>327644</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.964988486120205</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9390987363097342</v>
+        <v>0.9411837858022276</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9799672129448731</v>
+        <v>0.9800018534167202</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>339</v>
@@ -10141,19 +10141,19 @@
         <v>361296</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>352098</v>
+        <v>352536</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>366744</v>
+        <v>367539</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9632199097771561</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9386966638277194</v>
+        <v>0.9398653714069609</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9777429584697972</v>
+        <v>0.9798641560285495</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>652</v>
@@ -10162,19 +10162,19 @@
         <v>683921</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>672620</v>
+        <v>672343</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>692238</v>
+        <v>691837</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9640533879143992</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9481235016802163</v>
+        <v>0.9477337141069627</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9757770237664536</v>
+        <v>0.9752125820547093</v>
       </c>
     </row>
     <row r="39">
@@ -10407,19 +10407,19 @@
         <v>4201</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>1638</v>
+        <v>1651</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>9852</v>
+        <v>9421</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01649234979665421</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.006429769740482071</v>
+        <v>0.006483510603045835</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.03868262617493475</v>
+        <v>0.03698962919488853</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>8</v>
@@ -10428,19 +10428,19 @@
         <v>11204</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>5772</v>
+        <v>5132</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>21895</v>
+        <v>22530</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.02799909986883328</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01442362641411232</v>
+        <v>0.01282357749558219</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.05471485822839423</v>
+        <v>0.05630021989224042</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>13</v>
@@ -10449,19 +10449,19 @@
         <v>15405</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>8168</v>
+        <v>8717</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>25384</v>
+        <v>26897</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.02352375910630133</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01247256748171607</v>
+        <v>0.01331109097453239</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.03876201047863721</v>
+        <v>0.04107286095015133</v>
       </c>
     </row>
     <row r="44">
@@ -10478,19 +10478,19 @@
         <v>250498</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>244847</v>
+        <v>245278</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>253061</v>
+        <v>253048</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.9835076502033457</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.9613173738250655</v>
+        <v>0.9630103708051115</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.993570230259518</v>
+        <v>0.9935164893969541</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>293</v>
@@ -10499,19 +10499,19 @@
         <v>388965</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>378274</v>
+        <v>377639</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>394397</v>
+        <v>395037</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.9720009001311667</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.9452851417716056</v>
+        <v>0.9436997801077595</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.9855763735858876</v>
+        <v>0.9871764225044178</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>587</v>
@@ -10520,19 +10520,19 @@
         <v>639463</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>629484</v>
+        <v>627971</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>646700</v>
+        <v>646151</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.9764762408936987</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.9612379895213627</v>
+        <v>0.9589271390498491</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.9875274325182839</v>
+        <v>0.9866889090254677</v>
       </c>
     </row>
     <row r="45">
@@ -10624,19 +10624,19 @@
         <v>12824</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>6779</v>
+        <v>7021</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>22728</v>
+        <v>22156</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.003784804125458554</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.002000668513802901</v>
+        <v>0.002072236145588021</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.006707948983515523</v>
+        <v>0.006539133546622264</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>13</v>
@@ -10645,19 +10645,19 @@
         <v>13557</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>7553</v>
+        <v>7488</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>23992</v>
+        <v>23130</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.003836184758133722</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.002137155696435607</v>
+        <v>0.002118864799190606</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.006788688251220558</v>
+        <v>0.006544853292700153</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>25</v>
@@ -10666,19 +10666,19 @@
         <v>26381</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>18164</v>
+        <v>17839</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>40340</v>
+        <v>39484</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.00381103581671935</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.002623980581811233</v>
+        <v>0.002577006742895844</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.005827491663543688</v>
+        <v>0.005703886656649338</v>
       </c>
     </row>
     <row r="47">
@@ -10695,19 +10695,19 @@
         <v>17319</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>10267</v>
+        <v>10629</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>27597</v>
+        <v>28271</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.005111660418762669</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.003030291515838811</v>
+        <v>0.003137114125776511</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.008144981595694874</v>
+        <v>0.008344051879040304</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>29</v>
@@ -10716,19 +10716,19 @@
         <v>30294</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>21629</v>
+        <v>20757</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>42351</v>
+        <v>43815</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.008571922526267064</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.006120239871603449</v>
+        <v>0.005873416317727748</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.01198361952474328</v>
+        <v>0.01239771870010622</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>45</v>
@@ -10737,19 +10737,19 @@
         <v>47613</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>35378</v>
+        <v>35977</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>64230</v>
+        <v>63878</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.006878250718639518</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.005110801080042662</v>
+        <v>0.00519724774172806</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.009278750065487937</v>
+        <v>0.009227841916526895</v>
       </c>
     </row>
     <row r="48">
@@ -10769,7 +10769,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>5983</v>
+        <v>6951</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.0005867615708627396</v>
@@ -10778,7 +10778,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.001765841262978612</v>
+        <v>0.002051421277091299</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>7</v>
@@ -10787,19 +10787,19 @@
         <v>7629</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>3002</v>
+        <v>2896</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>15558</v>
+        <v>15023</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.002158762363611028</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.0008495618510466421</v>
+        <v>0.0008194850530279105</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.00440223996552753</v>
+        <v>0.004250906967861523</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>9</v>
@@ -10808,19 +10808,19 @@
         <v>9617</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>4284</v>
+        <v>4839</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>17391</v>
+        <v>17796</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.001389325441918948</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.0006188004930581148</v>
+        <v>0.0006990712933351889</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.002512362778540654</v>
+        <v>0.002570797069076899</v>
       </c>
     </row>
     <row r="49">
@@ -10837,19 +10837,19 @@
         <v>527722</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>481155</v>
+        <v>486043</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>573531</v>
+        <v>576290</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1557526686850779</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1420089320243199</v>
+        <v>0.1434515190227468</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1692727978116866</v>
+        <v>0.1700871206464859</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>462</v>
@@ -10858,19 +10858,19 @@
         <v>483938</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>445538</v>
+        <v>448300</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>531304</v>
+        <v>530631</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1369347807390182</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1260690686370904</v>
+        <v>0.126850558401667</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1503373154570137</v>
+        <v>0.150146805436835</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>929</v>
@@ -10879,19 +10879,19 @@
         <v>1011660</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>952842</v>
+        <v>949199</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>1077823</v>
+        <v>1071476</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1461454489783447</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1376485349650236</v>
+        <v>0.1371223386564296</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1557035103146694</v>
+        <v>0.1547865989493796</v>
       </c>
     </row>
     <row r="50">
@@ -10908,19 +10908,19 @@
         <v>2828351</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>2780050</v>
+        <v>2777152</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>2874127</v>
+        <v>2870663</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.8347641051998381</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.8205085216080663</v>
+        <v>0.8196531462809147</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.8482744923157413</v>
+        <v>0.8472519930217594</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>2817</v>
@@ -10929,19 +10929,19 @@
         <v>2998659</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>2953978</v>
+        <v>2952462</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>3041870</v>
+        <v>3036258</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.84849834961297</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.8358552748143335</v>
+        <v>0.8354263687885073</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.8607251102681081</v>
+        <v>0.8591373085241986</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>5544</v>
@@ -10950,19 +10950,19 @@
         <v>5827010</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>5757701</v>
+        <v>5765015</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>5884490</v>
+        <v>5887654</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.8417759390443775</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.8317635839416881</v>
+        <v>0.8328201395149588</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.8500796444039701</v>
+        <v>0.8505367512249343</v>
       </c>
     </row>
     <row r="51">
@@ -11344,19 +11344,19 @@
         <v>6844</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1491</v>
+        <v>1531</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21471</v>
+        <v>21040</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.0173921757035143</v>
+        <v>0.01739217570351431</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003789452242425857</v>
+        <v>0.003891823063923321</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05456389989529094</v>
+        <v>0.05346714973618294</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -11365,19 +11365,19 @@
         <v>7784</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3150</v>
+        <v>2432</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17011</v>
+        <v>17074</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02157251391891151</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.008728946583745286</v>
+        <v>0.006741417076635751</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04714546022128123</v>
+        <v>0.04731855402184963</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -11386,19 +11386,19 @@
         <v>14628</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7236</v>
+        <v>7797</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28457</v>
+        <v>30410</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01939177357267763</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.009592651158008761</v>
+        <v>0.01033645263023602</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03772500777567075</v>
+        <v>0.04031381988907402</v>
       </c>
     </row>
     <row r="6">
@@ -11415,19 +11415,19 @@
         <v>11157</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3424</v>
+        <v>3446</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32164</v>
+        <v>31168</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.02835218970308816</v>
+        <v>0.02835218970308817</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.008701883570037431</v>
+        <v>0.008756571342279654</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08173797233280464</v>
+        <v>0.07920541641146289</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -11439,7 +11439,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18920</v>
+        <v>16238</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01360823500630381</v>
@@ -11448,7 +11448,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05243566847307409</v>
+        <v>0.04500333961203937</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -11457,19 +11457,19 @@
         <v>16067</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5528</v>
+        <v>5444</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>34892</v>
+        <v>37031</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02129965498564802</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.007328369584295088</v>
+        <v>0.007217288727230583</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04625521559266686</v>
+        <v>0.04909144096369302</v>
       </c>
     </row>
     <row r="7">
@@ -11486,19 +11486,19 @@
         <v>63687</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43923</v>
+        <v>43426</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>89751</v>
+        <v>88704</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1618448139619154</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.111620576100407</v>
+        <v>0.110355622726225</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2280808884452922</v>
+        <v>0.2254199612702559</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>48</v>
@@ -11507,19 +11507,19 @@
         <v>89269</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>65777</v>
+        <v>69866</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>113686</v>
+        <v>116247</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2474048493307307</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1822994070368851</v>
+        <v>0.1936306764340996</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3150771791487829</v>
+        <v>0.3221738228859629</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>74</v>
@@ -11528,19 +11528,19 @@
         <v>152956</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>123454</v>
+        <v>123699</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>190930</v>
+        <v>189582</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2027710872904398</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1636605355864305</v>
+        <v>0.1639852098918408</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2531131768817814</v>
+        <v>0.2513252741356892</v>
       </c>
     </row>
     <row r="8">
@@ -11557,19 +11557,19 @@
         <v>311819</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>280428</v>
+        <v>284681</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>334767</v>
+        <v>335569</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.792410820631482</v>
+        <v>0.7924108206314823</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7126371770692639</v>
+        <v>0.7234457382344485</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.850727458166528</v>
+        <v>0.8527661245995756</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>150</v>
@@ -11578,19 +11578,19 @@
         <v>258858</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>232865</v>
+        <v>232623</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>283035</v>
+        <v>279168</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.717414401744054</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6453742913851269</v>
+        <v>0.6447039122281287</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7844206983622486</v>
+        <v>0.7737017093167027</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>286</v>
@@ -11599,19 +11599,19 @@
         <v>570677</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>533305</v>
+        <v>534916</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>602738</v>
+        <v>603358</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7565374841512347</v>
+        <v>0.7565374841512346</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7069936562926329</v>
+        <v>0.709129782224127</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7990401186920966</v>
+        <v>0.7998619111400899</v>
       </c>
     </row>
     <row r="9">
@@ -11750,19 +11750,19 @@
         <v>15744</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8536</v>
+        <v>8235</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>27713</v>
+        <v>25849</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.03312754934026002</v>
+        <v>0.03312754934026001</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01796253258851102</v>
+        <v>0.01732916425635591</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05831419351716548</v>
+        <v>0.05439088673012401</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>11</v>
@@ -11771,19 +11771,19 @@
         <v>12580</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6660</v>
+        <v>6162</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23291</v>
+        <v>22141</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02525366608945611</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01336848120406981</v>
+        <v>0.01236973430886069</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0467545118134534</v>
+        <v>0.04444511263031889</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>23</v>
@@ -11792,19 +11792,19 @@
         <v>28324</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>18419</v>
+        <v>17910</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>42127</v>
+        <v>41944</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02909788969110745</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01892265932119313</v>
+        <v>0.01839926189598392</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04327843742285265</v>
+        <v>0.04309046419133686</v>
       </c>
     </row>
     <row r="12">
@@ -11821,19 +11821,19 @@
         <v>9324</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3278</v>
+        <v>3531</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>22232</v>
+        <v>22739</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.0196190028235379</v>
+        <v>0.01961900282353789</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.006896755254613167</v>
+        <v>0.007429238542924851</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04677966162494777</v>
+        <v>0.04784661951337248</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -11842,19 +11842,19 @@
         <v>4196</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1133</v>
+        <v>937</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10252</v>
+        <v>10358</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.008423848316910291</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.002274677893699215</v>
+        <v>0.001880716332039283</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02057884679606666</v>
+        <v>0.02079146000279839</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -11863,19 +11863,19 @@
         <v>13520</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6969</v>
+        <v>6456</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>28431</v>
+        <v>25475</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.01388959829156445</v>
+        <v>0.01388959829156444</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.007159710457053863</v>
+        <v>0.006632028053607917</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02920783470607218</v>
+        <v>0.02617079259588271</v>
       </c>
     </row>
     <row r="13">
@@ -11892,19 +11892,19 @@
         <v>125983</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>102544</v>
+        <v>101954</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>153306</v>
+        <v>153198</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.265094092032411</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2157744224829305</v>
+        <v>0.2145316851651545</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3225862273481759</v>
+        <v>0.3223599612508311</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>111</v>
@@ -11913,19 +11913,19 @@
         <v>121719</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>103527</v>
+        <v>100202</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>143860</v>
+        <v>141909</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2443345088509117</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.207816204164446</v>
+        <v>0.20114198150107</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2887802882535075</v>
+        <v>0.2848647532197168</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>187</v>
@@ -11934,19 +11934,19 @@
         <v>247702</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>216401</v>
+        <v>215696</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>280004</v>
+        <v>279863</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2544698483123669</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2223134069735926</v>
+        <v>0.2215892496549277</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2876549636233806</v>
+        <v>0.2875094422899808</v>
       </c>
     </row>
     <row r="14">
@@ -11963,19 +11963,19 @@
         <v>324189</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>298980</v>
+        <v>296857</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>349727</v>
+        <v>348897</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6821593558037912</v>
+        <v>0.6821593558037911</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6291141914036568</v>
+        <v>0.6246486829136352</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.735896537463494</v>
+        <v>0.7341513851692159</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>332</v>
@@ -11984,19 +11984,19 @@
         <v>359668</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>337585</v>
+        <v>339625</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>379735</v>
+        <v>380437</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.721987976742722</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.677658232443298</v>
+        <v>0.6817543472988865</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7622691469731466</v>
+        <v>0.7636792217939964</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>540</v>
@@ -12005,19 +12005,19 @@
         <v>683857</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>650050</v>
+        <v>649051</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>719141</v>
+        <v>717312</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7025426637049613</v>
+        <v>0.7025426637049612</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6678118719631662</v>
+        <v>0.6667856007543205</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7387908308816964</v>
+        <v>0.7369119427432728</v>
       </c>
     </row>
     <row r="15">
@@ -12156,19 +12156,19 @@
         <v>16658</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9948</v>
+        <v>10424</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25344</v>
+        <v>26145</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.02705947802182738</v>
+        <v>0.02705947802182739</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01616035464085205</v>
+        <v>0.01693300354955889</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04117029839824625</v>
+        <v>0.04247146887677637</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -12177,19 +12177,19 @@
         <v>11615</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6741</v>
+        <v>6442</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18463</v>
+        <v>18112</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01870378769290939</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01085458766951627</v>
+        <v>0.01037377269095238</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02973143188111368</v>
+        <v>0.0291667433521419</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>33</v>
@@ -12198,19 +12198,19 @@
         <v>28273</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>19553</v>
+        <v>19531</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>38530</v>
+        <v>39676</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02286344655593811</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01581176650476233</v>
+        <v>0.01579398782718414</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03115846060841144</v>
+        <v>0.03208507442637078</v>
       </c>
     </row>
     <row r="18">
@@ -12227,19 +12227,19 @@
         <v>3926</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1072</v>
+        <v>1083</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11513</v>
+        <v>10748</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.006377245183264883</v>
+        <v>0.006377245183264885</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.001740786967825987</v>
+        <v>0.001758520089612526</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0187027888928951</v>
+        <v>0.01745866280515117</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -12248,19 +12248,19 @@
         <v>4576</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1677</v>
+        <v>1779</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9177</v>
+        <v>9768</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.007369287282996306</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.002701098481499506</v>
+        <v>0.002864268186292653</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01477746486151858</v>
+        <v>0.01572967551802157</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>9</v>
@@ -12269,19 +12269,19 @@
         <v>8502</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3954</v>
+        <v>4062</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>15653</v>
+        <v>16430</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.006875425429552079</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.003197723139444845</v>
+        <v>0.003284822079376616</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01265803346999837</v>
+        <v>0.01328702349674144</v>
       </c>
     </row>
     <row r="19">
@@ -12298,19 +12298,19 @@
         <v>136804</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>114488</v>
+        <v>115169</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>160832</v>
+        <v>159215</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2222283525270561</v>
+        <v>0.2222283525270562</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1859789021585246</v>
+        <v>0.1870849822984958</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2612610356189197</v>
+        <v>0.2586347676312799</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>140</v>
@@ -12319,19 +12319,19 @@
         <v>107009</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>91636</v>
+        <v>93235</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>123728</v>
+        <v>125681</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1723228280287893</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1475662419050838</v>
+        <v>0.150141006826138</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1992454920830832</v>
+        <v>0.2023907600275628</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>257</v>
@@ -12340,19 +12340,19 @@
         <v>243813</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>216792</v>
+        <v>218657</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>271864</v>
+        <v>271993</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1971669700591455</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1753156338631131</v>
+        <v>0.1768236396882412</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2198516549254328</v>
+        <v>0.2199557445574103</v>
       </c>
     </row>
     <row r="20">
@@ -12369,19 +12369,19 @@
         <v>458212</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>431367</v>
+        <v>435644</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>481200</v>
+        <v>480778</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7443349242678515</v>
+        <v>0.7443349242678517</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7007278879784617</v>
+        <v>0.7076748953276781</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7816780370811072</v>
+        <v>0.7809928015454666</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>683</v>
@@ -12390,19 +12390,19 @@
         <v>497782</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>480385</v>
+        <v>478420</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>514397</v>
+        <v>512116</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.801604096995305</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7735892403908722</v>
+        <v>0.7704254201254216</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8283606958657694</v>
+        <v>0.8246876341297249</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1088</v>
@@ -12411,19 +12411,19 @@
         <v>955994</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>927470</v>
+        <v>925531</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>982790</v>
+        <v>982808</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7730941579553642</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.750027384195267</v>
+        <v>0.7484594579655302</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.794763781389995</v>
+        <v>0.7947783547995598</v>
       </c>
     </row>
     <row r="21">
@@ -12562,19 +12562,19 @@
         <v>10296</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5205</v>
+        <v>5314</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18270</v>
+        <v>18906</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01469583939487751</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.007429010480181686</v>
+        <v>0.007585135280534346</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02607687884104663</v>
+        <v>0.0269846558131999</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>14</v>
@@ -12583,19 +12583,19 @@
         <v>8731</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4519</v>
+        <v>4803</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>14700</v>
+        <v>14260</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0119238087594437</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.00617164706589408</v>
+        <v>0.006560169563591677</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02007666166855532</v>
+        <v>0.01947601410683635</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>24</v>
@@ -12604,19 +12604,19 @@
         <v>19027</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>12123</v>
+        <v>11496</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>28154</v>
+        <v>27391</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01327926718119102</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.008461206210263918</v>
+        <v>0.008023042224383754</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01964923813041203</v>
+        <v>0.01911668345165925</v>
       </c>
     </row>
     <row r="24">
@@ -12633,19 +12633,19 @@
         <v>8145</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3074</v>
+        <v>3187</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17935</v>
+        <v>18476</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01162535507859456</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.004387846675699338</v>
+        <v>0.004548357426639461</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02559864178781467</v>
+        <v>0.02637132132831859</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>10</v>
@@ -12654,19 +12654,19 @@
         <v>6715</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3469</v>
+        <v>3466</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11704</v>
+        <v>11900</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.009170391720619281</v>
+        <v>0.009170391720619283</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.004737768935691279</v>
+        <v>0.004733871925272663</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01598519540572835</v>
+        <v>0.01625255983825711</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>16</v>
@@ -12675,19 +12675,19 @@
         <v>14860</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>8263</v>
+        <v>8246</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>25588</v>
+        <v>25409</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0103708116280017</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.005766588897234253</v>
+        <v>0.005755387235756441</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01785867189070284</v>
+        <v>0.01773333259879117</v>
       </c>
     </row>
     <row r="25">
@@ -12704,19 +12704,19 @@
         <v>85240</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>68552</v>
+        <v>68196</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>105879</v>
+        <v>103685</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.121664134574604</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09784477731250033</v>
+        <v>0.09733668502519673</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1511219414883096</v>
+        <v>0.1479906863288127</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>95</v>
@@ -12725,19 +12725,19 @@
         <v>64367</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>52582</v>
+        <v>53455</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>77594</v>
+        <v>77682</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.0879086299206181</v>
+        <v>0.08790862992061811</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07181272536916937</v>
+        <v>0.07300577766529344</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1059735155326808</v>
+        <v>0.1060934269457865</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>173</v>
@@ -12746,19 +12746,19 @@
         <v>149607</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>128683</v>
+        <v>129018</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>173408</v>
+        <v>174435</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1044142855503639</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08981048843763516</v>
+        <v>0.09004463286538712</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1210254555401227</v>
+        <v>0.1217419252912484</v>
       </c>
     </row>
     <row r="26">
@@ -12775,19 +12775,19 @@
         <v>596936</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>577167</v>
+        <v>577938</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>616024</v>
+        <v>615362</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8520146709519241</v>
+        <v>0.8520146709519237</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8237980976388175</v>
+        <v>0.8248987698168426</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8792590382483066</v>
+        <v>0.8783141468160413</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1015</v>
@@ -12796,19 +12796,19 @@
         <v>652393</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>637208</v>
+        <v>638189</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>666069</v>
+        <v>664463</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8909971695993187</v>
+        <v>0.8909971695993189</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8702572069583008</v>
+        <v>0.8715977960560274</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9096746145128078</v>
+        <v>0.907480771437371</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1586</v>
@@ -12817,19 +12817,19 @@
         <v>1249329</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1224632</v>
+        <v>1222455</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1273264</v>
+        <v>1271222</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8719356356404433</v>
+        <v>0.8719356356404432</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8546986612575121</v>
+        <v>0.8531795581791543</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8886398026223197</v>
+        <v>0.8872149139768715</v>
       </c>
     </row>
     <row r="27">
@@ -12968,19 +12968,19 @@
         <v>6907</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2763</v>
+        <v>3236</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12969</v>
+        <v>13211</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01136874022377646</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.004547467210080662</v>
+        <v>0.005326725747344474</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02134496914767338</v>
+        <v>0.021744085057575</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>12</v>
@@ -12989,19 +12989,19 @@
         <v>7277</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3886</v>
+        <v>3894</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>12664</v>
+        <v>12617</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01198909244348466</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.006401898162703321</v>
+        <v>0.006416047334983819</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02086444857945153</v>
+        <v>0.02078685589774095</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>20</v>
@@ -13010,19 +13010,19 @@
         <v>14184</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>8803</v>
+        <v>9362</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>21648</v>
+        <v>23094</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01167875534476932</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.007247888922912901</v>
+        <v>0.007708325382039805</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01782395819893818</v>
+        <v>0.01901449592396324</v>
       </c>
     </row>
     <row r="30">
@@ -13039,19 +13039,19 @@
         <v>4139</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12472</v>
+        <v>11139</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.006811790054036479</v>
+        <v>0.00681179005403648</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.001629512588755472</v>
+        <v>0.001635535354350549</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02052692801972843</v>
+        <v>0.01833308924587696</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3</v>
@@ -13060,19 +13060,19 @@
         <v>1701</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>5046</v>
+        <v>4976</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.002803077156222186</v>
+        <v>0.002803077156222187</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0006651408068506914</v>
+        <v>0.0006685566923954927</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.008312964189022286</v>
+        <v>0.008198208624380062</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>6</v>
@@ -13081,19 +13081,19 @@
         <v>5840</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2133</v>
+        <v>2294</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>14710</v>
+        <v>13886</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.004808473914334199</v>
+        <v>0.004808473914334198</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.001756639102600347</v>
+        <v>0.001888544730817459</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01211196834749147</v>
+        <v>0.01143290506772464</v>
       </c>
     </row>
     <row r="31">
@@ -13110,19 +13110,19 @@
         <v>47052</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>36635</v>
+        <v>35469</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>61826</v>
+        <v>61575</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.07744207384751653</v>
+        <v>0.07744207384751654</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.06029648839375343</v>
+        <v>0.05837736176446076</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1017568806256233</v>
+        <v>0.1013448958793024</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>64</v>
@@ -13131,19 +13131,19 @@
         <v>40405</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>31588</v>
+        <v>30533</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>50609</v>
+        <v>49504</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06657079117172901</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05204298823129992</v>
+        <v>0.05030568722599826</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.08338179236408182</v>
+        <v>0.08156245879026375</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>114</v>
@@ -13152,19 +13152,19 @@
         <v>87458</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>73316</v>
+        <v>73179</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>107068</v>
+        <v>104143</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.07200925373821275</v>
+        <v>0.07200925373821274</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06036562074485157</v>
+        <v>0.06025315210815019</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0881555602287919</v>
+        <v>0.08574777141099055</v>
       </c>
     </row>
     <row r="32">
@@ -13181,19 +13181,19 @@
         <v>549483</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>534181</v>
+        <v>534090</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>561165</v>
+        <v>562702</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.9043773958746706</v>
+        <v>0.9043773958746707</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8791908074260054</v>
+        <v>0.8790418419956931</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9236033987566784</v>
+        <v>0.9261335858988192</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>920</v>
@@ -13202,19 +13202,19 @@
         <v>557568</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>546316</v>
+        <v>547209</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>567836</v>
+        <v>568911</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.9186370392285643</v>
+        <v>0.9186370392285641</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9000991622061127</v>
+        <v>0.9015695669195987</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9355542952836757</v>
+        <v>0.9373267420588761</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1520</v>
@@ -13223,19 +13223,19 @@
         <v>1107051</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1085906</v>
+        <v>1088525</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1122696</v>
+        <v>1122583</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9115035170026837</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8940935330822711</v>
+        <v>0.8962495731682381</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9243848482976894</v>
+        <v>0.9242919292458348</v>
       </c>
     </row>
     <row r="33">
@@ -13374,19 +13374,19 @@
         <v>6147</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2642</v>
+        <v>2902</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>11623</v>
+        <v>11995</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01513115476222906</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.006504702211774034</v>
+        <v>0.007143378549552167</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02861307250629833</v>
+        <v>0.02952877845135903</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>5</v>
@@ -13395,19 +13395,19 @@
         <v>2813</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>6383</v>
+        <v>6307</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.006416214400243789</v>
+        <v>0.00641621440024379</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.002498553038228727</v>
+        <v>0.002156193924272939</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01455715282220557</v>
+        <v>0.01438251879171354</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>13</v>
@@ -13416,19 +13416,19 @@
         <v>8960</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>5188</v>
+        <v>4993</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>17116</v>
+        <v>15839</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0106072700698336</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.006141838915997172</v>
+        <v>0.005911340515020077</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02026222123947303</v>
+        <v>0.01875017789885171</v>
       </c>
     </row>
     <row r="36">
@@ -13448,7 +13448,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5160</v>
+        <v>5659</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.003688700722020374</v>
@@ -13457,7 +13457,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01270112350163966</v>
+        <v>0.01393100409478238</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>4</v>
@@ -13466,19 +13466,19 @@
         <v>2150</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>4847</v>
+        <v>5365</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.004904111450128723</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.001135279244270864</v>
+        <v>0.00114866232992607</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01105438789198584</v>
+        <v>0.01223634219573622</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>6</v>
@@ -13487,19 +13487,19 @@
         <v>3649</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1339</v>
+        <v>1484</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>7585</v>
+        <v>8165</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.004319614733990737</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.001584595837457079</v>
+        <v>0.001756581162642207</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.008979796139046823</v>
+        <v>0.009666128873575663</v>
       </c>
     </row>
     <row r="37">
@@ -13516,19 +13516,19 @@
         <v>27155</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>19140</v>
+        <v>19783</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>37725</v>
+        <v>36157</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.06684713378862801</v>
+        <v>0.066847133788628</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04711625481103282</v>
+        <v>0.0487003679574556</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09286565624362987</v>
+        <v>0.08900607080344679</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>44</v>
@@ -13537,19 +13537,19 @@
         <v>24477</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>18200</v>
+        <v>18188</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>32026</v>
+        <v>33024</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.05582061985853349</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.04150595379843869</v>
+        <v>0.04147943667784683</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.07303641852347338</v>
+        <v>0.07531260377169077</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>82</v>
@@ -13558,19 +13558,19 @@
         <v>51632</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>42556</v>
+        <v>41148</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>63723</v>
+        <v>63611</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.06112332209205817</v>
+        <v>0.06112332209205816</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.05037934947085358</v>
+        <v>0.04871297279099937</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.07543693837104497</v>
+        <v>0.07530480103910586</v>
       </c>
     </row>
     <row r="38">
@@ -13587,19 +13587,19 @@
         <v>371427</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>360540</v>
+        <v>361372</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>379633</v>
+        <v>380315</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9143330107271226</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8875322335371209</v>
+        <v>0.8895815647165251</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.934535284058848</v>
+        <v>0.9362126444407913</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>773</v>
@@ -13608,19 +13608,19 @@
         <v>409047</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>401252</v>
+        <v>399993</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>416779</v>
+        <v>415527</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9328590542910941</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9150822360263217</v>
+        <v>0.9122112098582064</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9504936030080094</v>
+        <v>0.9476377776020527</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1294</v>
@@ -13629,19 +13629,19 @@
         <v>780472</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>765812</v>
+        <v>767221</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>791193</v>
+        <v>792313</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.9239497931041175</v>
+        <v>0.9239497931041173</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9065942586246528</v>
+        <v>0.9082629211705572</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9366414104951583</v>
+        <v>0.9379670958598175</v>
       </c>
     </row>
     <row r="39">
@@ -13783,7 +13783,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>4054</v>
+        <v>3536</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.003201423386545785</v>
@@ -13792,7 +13792,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.0130674861224559</v>
+        <v>0.01140034953817839</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>8</v>
@@ -13801,19 +13801,19 @@
         <v>4416</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1998</v>
+        <v>1798</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>8395</v>
+        <v>7996</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.009527682225347528</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.004311848997788757</v>
+        <v>0.003878902270798288</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01811320954717117</v>
+        <v>0.0172527389156414</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>10</v>
@@ -13822,19 +13822,19 @@
         <v>5409</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2687</v>
+        <v>2593</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>9813</v>
+        <v>9272</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.006991222055777528</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.003473415491219128</v>
+        <v>0.003351693749433263</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01268308881271676</v>
+        <v>0.01198480436257779</v>
       </c>
     </row>
     <row r="42">
@@ -13854,7 +13854,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4960</v>
+        <v>4477</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.002921442785478628</v>
@@ -13863,7 +13863,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.01598911970244659</v>
+        <v>0.01443195985944752</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>7</v>
@@ -13872,19 +13872,19 @@
         <v>4446</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>2009</v>
+        <v>1990</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>9429</v>
+        <v>9540</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.009593427653667469</v>
+        <v>0.009593427653667471</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.004333660980238073</v>
+        <v>0.004293710225757537</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.02034384662887727</v>
+        <v>0.02058274099503004</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>8</v>
@@ -13893,19 +13893,19 @@
         <v>5353</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2160</v>
+        <v>2208</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>10386</v>
+        <v>10450</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.006918351546073337</v>
+        <v>0.006918351546073336</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.002791739494188453</v>
+        <v>0.002853868113148931</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.01342367069555098</v>
+        <v>0.0135072656625897</v>
       </c>
     </row>
     <row r="43">
@@ -13922,19 +13922,19 @@
         <v>12491</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>7590</v>
+        <v>6846</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>20762</v>
+        <v>19367</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.04026692096162739</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02446680403104723</v>
+        <v>0.0220693761999681</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.06693244056978245</v>
+        <v>0.0624351718302781</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>16</v>
@@ -13943,19 +13943,19 @@
         <v>8880</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>5240</v>
+        <v>5586</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>14839</v>
+        <v>15056</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.01916063972375542</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01130632304865845</v>
+        <v>0.01205207281717008</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.03201702949020042</v>
+        <v>0.03248440955764621</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>32</v>
@@ -13964,19 +13964,19 @@
         <v>21371</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>14881</v>
+        <v>15145</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>30544</v>
+        <v>30147</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.02762302532189907</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01923365135187671</v>
+        <v>0.01957581784157649</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.03947867100212477</v>
+        <v>0.03896622797059372</v>
       </c>
     </row>
     <row r="44">
@@ -13993,19 +13993,19 @@
         <v>295808</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>287502</v>
+        <v>288738</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>301269</v>
+        <v>301587</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.9536102128663481</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.9268323561006001</v>
+        <v>0.9308181382641437</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.9712152648874447</v>
+        <v>0.9722394516729075</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>848</v>
@@ -14014,19 +14014,19 @@
         <v>445733</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>437899</v>
+        <v>438451</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>451353</v>
+        <v>451376</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.9617182503972296</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.944815668324426</v>
+        <v>0.9460068035680339</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.9738430982657658</v>
+        <v>0.9738933746451638</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1287</v>
@@ -14035,19 +14035,19 @@
         <v>741542</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>731757</v>
+        <v>732483</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>749935</v>
+        <v>749477</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.9584674010762501</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.9458197016264154</v>
+        <v>0.9467584970289172</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.9693159138918289</v>
+        <v>0.9687227893798869</v>
       </c>
     </row>
     <row r="45">
@@ -14186,19 +14186,19 @@
         <v>63589</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>49560</v>
+        <v>48075</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>85026</v>
+        <v>82214</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.01812173056499867</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.01412378218812643</v>
+        <v>0.01370057905493988</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.02423100413167514</v>
+        <v>0.02342961424638692</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>72</v>
@@ -14207,19 +14207,19 @@
         <v>55216</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>43120</v>
+        <v>43553</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>68897</v>
+        <v>71438</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.01483860713574093</v>
+        <v>0.01483860713574092</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.0115881332167316</v>
+        <v>0.01170442330296462</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.01851518930146876</v>
+        <v>0.01919816825169813</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>132</v>
@@ -14228,19 +14228,19 @@
         <v>118804</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>99421</v>
+        <v>98375</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>143454</v>
+        <v>143492</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.01643200827255385</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.01375111531661126</v>
+        <v>0.01360645402956358</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.01984132970470993</v>
+        <v>0.01984663000468807</v>
       </c>
     </row>
     <row r="48">
@@ -14257,19 +14257,19 @@
         <v>39095</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>24885</v>
+        <v>25225</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>60301</v>
+        <v>60613</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.01114135118916345</v>
+        <v>0.01114135118916344</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.0070919013833028</v>
+        <v>0.007188666546250095</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.01718468472578034</v>
+        <v>0.01727377707616353</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>36</v>
@@ -14278,19 +14278,19 @@
         <v>28695</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>19291</v>
+        <v>19614</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>39927</v>
+        <v>43249</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.007711576726432729</v>
+        <v>0.007711576726432726</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.005184307121190551</v>
+        <v>0.0052710664931506</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.0107299027287008</v>
+        <v>0.01162276458387457</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>59</v>
@@ -14299,19 +14299,19 @@
         <v>67790</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>50267</v>
+        <v>50167</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>92846</v>
+        <v>91795</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.009376152136307764</v>
+        <v>0.009376152136307768</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.006952551172476206</v>
+        <v>0.006938665329113938</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.01284165507955954</v>
+        <v>0.01269637081812902</v>
       </c>
     </row>
     <row r="49">
@@ -14328,19 +14328,19 @@
         <v>498412</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>445818</v>
+        <v>452598</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>543121</v>
+        <v>545216</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1420394210487126</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1270510305368305</v>
+        <v>0.1289830764366077</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1547807175627253</v>
+        <v>0.1553778749254128</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>518</v>
@@ -14349,19 +14349,19 @@
         <v>456126</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>418003</v>
+        <v>417781</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>500276</v>
+        <v>494991</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.1225787892336193</v>
+        <v>0.1225787892336192</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1123336430726388</v>
+        <v>0.1122739756566129</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1344436053884401</v>
+        <v>0.1330230979951428</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>919</v>
@@ -14370,19 +14370,19 @@
         <v>954538</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>889693</v>
+        <v>893379</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>1014616</v>
+        <v>1020173</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.1320236345236051</v>
+        <v>0.1320236345236052</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1230547298212205</v>
+        <v>0.1235645998402775</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1403330340035073</v>
+        <v>0.1411017337240976</v>
       </c>
     </row>
     <row r="50">
@@ -14399,19 +14399,19 @@
         <v>2907874</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>2857436</v>
+        <v>2853501</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>2961983</v>
+        <v>2958373</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.8286974971971252</v>
+        <v>0.8286974971971254</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.81432338270462</v>
+        <v>0.8132019734770751</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.8441177133832328</v>
+        <v>0.8430890844304409</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>4721</v>
@@ -14420,19 +14420,19 @@
         <v>3181049</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>3138152</v>
+        <v>3137718</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>3221678</v>
+        <v>3220370</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.854871026904207</v>
+        <v>0.8548710269042071</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.8433428135760502</v>
+        <v>0.843226212228829</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.8657894255394163</v>
+        <v>0.8654380448282859</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>7601</v>
@@ -14441,19 +14441,19 @@
         <v>6088923</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>6018654</v>
+        <v>6017052</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>6154429</v>
+        <v>6154848</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.842168205067533</v>
+        <v>0.8421682050675333</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.8324492023372801</v>
+        <v>0.8322276475763386</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.8512284510158548</v>
+        <v>0.8512863954237714</v>
       </c>
     </row>
     <row r="51">
